--- a/BioRAM-2022 (BioRisk).xlsx
+++ b/BioRAM-2022 (BioRisk).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Analytical\BioRAM\2021 - ALD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26055F61-426A-4BCD-9E2A-D3CD3F927158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32EF709-13A5-413D-8D60-80D545590AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="3765" windowWidth="39465" windowHeight="26475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -4960,7 +4960,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5299,6 +5299,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6146,7 +6153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="588">
+  <cellXfs count="589">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7069,34 +7076,80 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="44" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="47" fillId="59" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="47" fillId="59" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7117,32 +7170,71 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="51" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="51" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7180,35 +7272,41 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="51" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="51" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7216,22 +7314,10 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="55" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7243,11 +7329,59 @@
     <xf numFmtId="0" fontId="8" fillId="54" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7258,7 +7392,28 @@
     <xf numFmtId="0" fontId="8" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7294,106 +7449,22 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7507,70 +7578,7 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="59" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="59" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="48" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12982,28 +12990,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mitigation of Contact Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Mitigation of Inhalation Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Mitigation of Percutaneous Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Mitigation of Contact Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Mitigation of Ingestion Exposure (I)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Mitigation of Contact Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13068,28 +13076,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mitigation of Contact Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Mitigation of Inhalation Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Mitigation of Percutaneous Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Mitigation of Contact Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Mitigation of Ingestion Exposure (I)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Mitigation of Contact Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13154,28 +13162,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mitigation of Contact Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Mitigation of Inhalation Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Mitigation of Percutaneous Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Mitigation of Contact Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Mitigation of Ingestion Exposure (I)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Mitigation of Contact Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19646,7 +19654,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Effectivness of BioSafety Mitigation Measures</a:t>
+              <a:t>Effectiveness of Biosafety Mitigation Measures</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-US"/>
@@ -19700,28 +19708,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mitigation of Contact Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Mitigation of Inhalation Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Mitigation of Percutaneous Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Mitigation of Contact Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Mitigation of Ingestion Exposure (I)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Mitigation of Contact Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19786,28 +19794,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mitigation of Contact Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Mitigation of Inhalation Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Mitigation of Percutaneous Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Mitigation of Contact Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Mitigation of Ingestion Exposure (I)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Mitigation of Contact Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19872,28 +19880,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mitigation of Contact Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Mitigation of Inhalation Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Mitigation of Percutaneous Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Mitigation of Contact Exposure (I)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Mitigation of Ingestion Exposure (I)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mitigation of Inhalation Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Mitigation of Percutaneous Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Mitigation of Contact Exposure (C)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mitigation of Ingestion Exposure (C)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -29730,15 +29738,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>505558</xdr:colOff>
+      <xdr:colOff>539576</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>196361</xdr:rowOff>
+      <xdr:rowOff>219040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>293077</xdr:colOff>
+      <xdr:colOff>327095</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>498929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29945,7 +29953,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA94F281-3186-42DF-927A-61BDC0409F53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29983,7 +29991,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C174F1F-954B-448A-A514-E2E2EEED76D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30021,7 +30029,7 @@
         <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D707AB-D244-49D6-BCF1-B66066C230B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30048,16 +30056,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>577452</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>470296</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>273842</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>309561</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30402,198 +30410,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="568"/>
-      <c r="B1" s="569"/>
-      <c r="C1" s="569"/>
-      <c r="D1" s="565"/>
-      <c r="E1" s="565"/>
-      <c r="F1" s="565"/>
-      <c r="G1" s="565"/>
-      <c r="H1" s="565"/>
+      <c r="A1" s="422"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="419"/>
+      <c r="F1" s="419"/>
+      <c r="G1" s="419"/>
+      <c r="H1" s="419"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="571" t="s">
+      <c r="A2" s="425" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="566"/>
-      <c r="C2" s="569"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="565"/>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="565"/>
+      <c r="B2" s="420"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="419"/>
+      <c r="E2" s="419"/>
+      <c r="F2" s="419"/>
+      <c r="G2" s="419"/>
+      <c r="H2" s="419"/>
     </row>
     <row r="3" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="572" t="s">
+      <c r="A3" s="426" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="567"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="565"/>
-      <c r="F3" s="565"/>
-      <c r="G3" s="565"/>
-      <c r="H3" s="565"/>
+      <c r="B3" s="421"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="419"/>
+      <c r="F3" s="419"/>
+      <c r="G3" s="419"/>
+      <c r="H3" s="419"/>
     </row>
     <row r="4" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="570"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="565"/>
-      <c r="E4" s="565"/>
-      <c r="F4" s="565"/>
-      <c r="G4" s="565"/>
-      <c r="H4" s="565"/>
+      <c r="A4" s="424"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="423"/>
+      <c r="D4" s="419"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="419"/>
+      <c r="G4" s="419"/>
+      <c r="H4" s="419"/>
     </row>
     <row r="5" spans="1:8" s="416" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="564"/>
-      <c r="B5" s="564"/>
-      <c r="C5" s="565"/>
-      <c r="D5" s="565"/>
-      <c r="E5" s="565"/>
-      <c r="F5" s="565"/>
-      <c r="G5" s="565"/>
-      <c r="H5" s="565"/>
+      <c r="A5" s="418"/>
+      <c r="B5" s="418"/>
+      <c r="C5" s="419"/>
+      <c r="D5" s="419"/>
+      <c r="E5" s="419"/>
+      <c r="F5" s="419"/>
+      <c r="G5" s="419"/>
+      <c r="H5" s="419"/>
     </row>
     <row r="6" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="564"/>
-      <c r="B6" s="564"/>
-      <c r="C6" s="564"/>
-      <c r="D6" s="564"/>
-      <c r="E6" s="565"/>
-      <c r="F6" s="565"/>
-      <c r="G6" s="565"/>
-      <c r="H6" s="565"/>
+      <c r="A6" s="418"/>
+      <c r="B6" s="418"/>
+      <c r="C6" s="418"/>
+      <c r="D6" s="418"/>
+      <c r="E6" s="419"/>
+      <c r="F6" s="419"/>
+      <c r="G6" s="419"/>
+      <c r="H6" s="419"/>
     </row>
     <row r="7" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="564"/>
-      <c r="B7" s="564"/>
-      <c r="C7" s="564"/>
-      <c r="D7" s="564"/>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="565"/>
+      <c r="A7" s="418"/>
+      <c r="B7" s="418"/>
+      <c r="C7" s="418"/>
+      <c r="D7" s="418"/>
+      <c r="E7" s="419"/>
+      <c r="F7" s="419"/>
+      <c r="G7" s="419"/>
+      <c r="H7" s="419"/>
     </row>
     <row r="8" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="564"/>
-      <c r="B8" s="564"/>
-      <c r="C8" s="564"/>
-      <c r="D8" s="564"/>
-      <c r="E8" s="565"/>
-      <c r="F8" s="565"/>
-      <c r="G8" s="565"/>
-      <c r="H8" s="565"/>
+      <c r="A8" s="418"/>
+      <c r="B8" s="418"/>
+      <c r="C8" s="418"/>
+      <c r="D8" s="418"/>
+      <c r="E8" s="419"/>
+      <c r="F8" s="419"/>
+      <c r="G8" s="419"/>
+      <c r="H8" s="419"/>
     </row>
     <row r="9" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="564"/>
-      <c r="B9" s="564"/>
-      <c r="C9" s="564"/>
-      <c r="D9" s="564"/>
-      <c r="E9" s="565"/>
-      <c r="F9" s="565"/>
-      <c r="G9" s="565"/>
-      <c r="H9" s="565"/>
+      <c r="A9" s="418"/>
+      <c r="B9" s="418"/>
+      <c r="C9" s="418"/>
+      <c r="D9" s="418"/>
+      <c r="E9" s="419"/>
+      <c r="F9" s="419"/>
+      <c r="G9" s="419"/>
+      <c r="H9" s="419"/>
     </row>
     <row r="10" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="564"/>
-      <c r="B10" s="564"/>
-      <c r="C10" s="564"/>
-      <c r="D10" s="564"/>
-      <c r="E10" s="565"/>
-      <c r="F10" s="565"/>
-      <c r="G10" s="565"/>
-      <c r="H10" s="565"/>
+      <c r="A10" s="418"/>
+      <c r="B10" s="418"/>
+      <c r="C10" s="418"/>
+      <c r="D10" s="418"/>
+      <c r="E10" s="419"/>
+      <c r="F10" s="419"/>
+      <c r="G10" s="419"/>
+      <c r="H10" s="419"/>
     </row>
     <row r="11" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="564"/>
-      <c r="B11" s="564"/>
-      <c r="C11" s="564"/>
-      <c r="D11" s="564"/>
-      <c r="E11" s="565"/>
-      <c r="F11" s="565"/>
-      <c r="G11" s="565"/>
-      <c r="H11" s="565"/>
+      <c r="A11" s="418"/>
+      <c r="B11" s="418"/>
+      <c r="C11" s="418"/>
+      <c r="D11" s="418"/>
+      <c r="E11" s="419"/>
+      <c r="F11" s="419"/>
+      <c r="G11" s="419"/>
+      <c r="H11" s="419"/>
     </row>
     <row r="12" spans="1:8" s="416" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="564"/>
-      <c r="B12" s="564"/>
-      <c r="C12" s="564"/>
-      <c r="D12" s="564"/>
-      <c r="E12" s="565"/>
-      <c r="F12" s="565"/>
-      <c r="G12" s="565"/>
-      <c r="H12" s="565"/>
+      <c r="A12" s="418"/>
+      <c r="B12" s="418"/>
+      <c r="C12" s="418"/>
+      <c r="D12" s="418"/>
+      <c r="E12" s="419"/>
+      <c r="F12" s="419"/>
+      <c r="G12" s="419"/>
+      <c r="H12" s="419"/>
     </row>
     <row r="13" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="564"/>
-      <c r="B13" s="564"/>
-      <c r="C13" s="564"/>
-      <c r="D13" s="564"/>
-      <c r="E13" s="565"/>
-      <c r="F13" s="565"/>
-      <c r="G13" s="565"/>
-      <c r="H13" s="565"/>
+      <c r="A13" s="418"/>
+      <c r="B13" s="418"/>
+      <c r="C13" s="418"/>
+      <c r="D13" s="418"/>
+      <c r="E13" s="419"/>
+      <c r="F13" s="419"/>
+      <c r="G13" s="419"/>
+      <c r="H13" s="419"/>
     </row>
     <row r="14" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="564"/>
-      <c r="B14" s="564"/>
-      <c r="C14" s="564"/>
-      <c r="D14" s="564"/>
-      <c r="E14" s="565"/>
-      <c r="F14" s="565"/>
-      <c r="G14" s="565"/>
-      <c r="H14" s="565"/>
+      <c r="A14" s="418"/>
+      <c r="B14" s="418"/>
+      <c r="C14" s="418"/>
+      <c r="D14" s="418"/>
+      <c r="E14" s="419"/>
+      <c r="F14" s="419"/>
+      <c r="G14" s="419"/>
+      <c r="H14" s="419"/>
     </row>
     <row r="15" spans="1:8" s="416" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="564"/>
-      <c r="B15" s="564"/>
-      <c r="C15" s="564"/>
-      <c r="D15" s="564"/>
-      <c r="E15" s="565"/>
-      <c r="F15" s="565"/>
-      <c r="G15" s="565"/>
-      <c r="H15" s="565"/>
+      <c r="A15" s="418"/>
+      <c r="B15" s="418"/>
+      <c r="C15" s="418"/>
+      <c r="D15" s="418"/>
+      <c r="E15" s="419"/>
+      <c r="F15" s="419"/>
+      <c r="G15" s="419"/>
+      <c r="H15" s="419"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="564"/>
-      <c r="B16" s="564"/>
-      <c r="C16" s="564"/>
-      <c r="D16" s="564"/>
-      <c r="E16" s="565"/>
-      <c r="F16" s="565"/>
-      <c r="G16" s="565"/>
-      <c r="H16" s="565"/>
+      <c r="A16" s="418"/>
+      <c r="B16" s="418"/>
+      <c r="C16" s="418"/>
+      <c r="D16" s="418"/>
+      <c r="E16" s="419"/>
+      <c r="F16" s="419"/>
+      <c r="G16" s="419"/>
+      <c r="H16" s="419"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="564"/>
-      <c r="B17" s="564"/>
-      <c r="C17" s="564"/>
-      <c r="D17" s="564"/>
-      <c r="E17" s="565"/>
-      <c r="F17" s="565"/>
-      <c r="G17" s="565"/>
-      <c r="H17" s="565"/>
+      <c r="A17" s="418"/>
+      <c r="B17" s="418"/>
+      <c r="C17" s="418"/>
+      <c r="D17" s="418"/>
+      <c r="E17" s="419"/>
+      <c r="F17" s="419"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="419"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="564"/>
-      <c r="B18" s="564"/>
-      <c r="C18" s="564"/>
-      <c r="D18" s="564"/>
-      <c r="E18" s="565"/>
-      <c r="F18" s="565"/>
-      <c r="G18" s="565"/>
-      <c r="H18" s="565"/>
+      <c r="A18" s="418"/>
+      <c r="B18" s="418"/>
+      <c r="C18" s="418"/>
+      <c r="D18" s="418"/>
+      <c r="E18" s="419"/>
+      <c r="F18" s="419"/>
+      <c r="G18" s="419"/>
+      <c r="H18" s="419"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="564"/>
-      <c r="B19" s="564"/>
-      <c r="C19" s="564"/>
-      <c r="D19" s="564"/>
-      <c r="E19" s="565"/>
-      <c r="F19" s="565"/>
-      <c r="G19" s="565"/>
-      <c r="H19" s="565"/>
+      <c r="A19" s="418"/>
+      <c r="B19" s="418"/>
+      <c r="C19" s="418"/>
+      <c r="D19" s="418"/>
+      <c r="E19" s="419"/>
+      <c r="F19" s="419"/>
+      <c r="G19" s="419"/>
+      <c r="H19" s="419"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="417"/>
@@ -30624,43 +30632,43 @@
       <c r="A1" s="171" t="s">
         <v>650</v>
       </c>
-      <c r="E1" s="557" t="s">
+      <c r="E1" s="581" t="s">
         <v>651</v>
       </c>
-      <c r="F1" s="558"/>
-      <c r="G1" s="558"/>
-      <c r="H1" s="559"/>
-      <c r="I1" s="557" t="s">
+      <c r="F1" s="582"/>
+      <c r="G1" s="582"/>
+      <c r="H1" s="583"/>
+      <c r="I1" s="581" t="s">
         <v>652</v>
       </c>
-      <c r="J1" s="558"/>
-      <c r="K1" s="558"/>
-      <c r="L1" s="558"/>
-      <c r="M1" s="557" t="s">
+      <c r="J1" s="582"/>
+      <c r="K1" s="582"/>
+      <c r="L1" s="582"/>
+      <c r="M1" s="581" t="s">
         <v>653</v>
       </c>
-      <c r="N1" s="558"/>
-      <c r="O1" s="558"/>
-      <c r="P1" s="559"/>
-      <c r="Q1" s="557" t="s">
+      <c r="N1" s="582"/>
+      <c r="O1" s="582"/>
+      <c r="P1" s="583"/>
+      <c r="Q1" s="581" t="s">
         <v>654</v>
       </c>
-      <c r="R1" s="558"/>
-      <c r="S1" s="558"/>
-      <c r="T1" s="559"/>
+      <c r="R1" s="582"/>
+      <c r="S1" s="582"/>
+      <c r="T1" s="583"/>
       <c r="V1" s="172"/>
-      <c r="W1" s="557" t="s">
+      <c r="W1" s="581" t="s">
         <v>655</v>
       </c>
-      <c r="X1" s="558"/>
-      <c r="Y1" s="558"/>
-      <c r="Z1" s="559"/>
-      <c r="AA1" s="557" t="s">
+      <c r="X1" s="582"/>
+      <c r="Y1" s="582"/>
+      <c r="Z1" s="583"/>
+      <c r="AA1" s="581" t="s">
         <v>656</v>
       </c>
-      <c r="AB1" s="558"/>
-      <c r="AC1" s="558"/>
-      <c r="AD1" s="559"/>
+      <c r="AB1" s="582"/>
+      <c r="AC1" s="582"/>
+      <c r="AD1" s="583"/>
     </row>
     <row r="2" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="E2" s="173" t="s">
@@ -32122,7 +32130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BCAB3C-1C0B-462F-A919-053AD74E4463}">
   <dimension ref="A1:AL76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -32141,13 +32149,13 @@
       <c r="A1" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="434" t="s">
+      <c r="B1" s="435" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
       <c r="G1" s="78" t="s">
         <v>322</v>
       </c>
@@ -32183,16 +32191,16 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="435" t="s">
+      <c r="A2" s="436" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="436"/>
-      <c r="C2" s="436"/>
-      <c r="D2" s="436"/>
-      <c r="E2" s="436"/>
-      <c r="F2" s="436"/>
-      <c r="G2" s="436"/>
-      <c r="H2" s="436"/>
+      <c r="B2" s="437"/>
+      <c r="C2" s="437"/>
+      <c r="D2" s="437"/>
+      <c r="E2" s="437"/>
+      <c r="F2" s="437"/>
+      <c r="G2" s="437"/>
+      <c r="H2" s="437"/>
       <c r="I2" s="363"/>
       <c r="J2" s="358">
         <f>IF($F$3,SUM(K4:K12),0)</f>
@@ -32228,20 +32236,20 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="438" t="s">
+      <c r="A3" s="439" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="439" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="439"/>
-      <c r="D3" s="439"/>
-      <c r="E3" s="439"/>
-      <c r="F3" s="439" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="580"/>
-      <c r="H3" s="576"/>
+      <c r="B3" s="440" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="441"/>
+      <c r="H3" s="427"/>
       <c r="I3" s="364"/>
       <c r="J3" s="364"/>
       <c r="K3" s="364"/>
@@ -32278,11 +32286,11 @@
       <c r="B4" s="220" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="437" t="s">
+      <c r="C4" s="438" t="s">
         <v>471</v>
       </c>
-      <c r="D4" s="437"/>
-      <c r="E4" s="437"/>
+      <c r="D4" s="438"/>
+      <c r="E4" s="438"/>
       <c r="F4" s="221" t="b">
         <v>1</v>
       </c>
@@ -32662,13 +32670,13 @@
       <c r="AL12" s="353"/>
     </row>
     <row r="13" spans="1:38" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="581"/>
-      <c r="B13" s="582"/>
-      <c r="C13" s="582"/>
-      <c r="D13" s="582"/>
-      <c r="E13" s="582"/>
-      <c r="F13" s="582"/>
-      <c r="G13" s="583"/>
+      <c r="A13" s="431"/>
+      <c r="B13" s="432"/>
+      <c r="C13" s="432"/>
+      <c r="D13" s="432"/>
+      <c r="E13" s="432"/>
+      <c r="F13" s="432"/>
+      <c r="G13" s="433"/>
       <c r="H13" s="360"/>
       <c r="I13" s="361" t="s">
         <v>763</v>
@@ -32700,16 +32708,16 @@
       <c r="AL13" s="353"/>
     </row>
     <row r="14" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="435" t="s">
+      <c r="A14" s="436" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="436"/>
-      <c r="C14" s="436"/>
-      <c r="D14" s="436"/>
-      <c r="E14" s="436"/>
-      <c r="F14" s="436"/>
-      <c r="G14" s="584"/>
-      <c r="H14" s="577"/>
+      <c r="B14" s="437"/>
+      <c r="C14" s="437"/>
+      <c r="D14" s="437"/>
+      <c r="E14" s="437"/>
+      <c r="F14" s="437"/>
+      <c r="G14" s="442"/>
+      <c r="H14" s="428"/>
       <c r="I14" s="363">
         <f>IF($B$3,SUM(I16:I35),0)</f>
         <v>0</v>
@@ -32739,17 +32747,17 @@
       <c r="AL14" s="353"/>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="428" t="s">
+      <c r="A15" s="446" t="s">
         <v>375</v>
       </c>
-      <c r="B15" s="429"/>
-      <c r="C15" s="429"/>
-      <c r="D15" s="429"/>
-      <c r="E15" s="429"/>
-      <c r="F15" s="429"/>
-      <c r="G15" s="430"/>
-      <c r="H15" s="578"/>
-      <c r="I15" s="578"/>
+      <c r="B15" s="447"/>
+      <c r="C15" s="447"/>
+      <c r="D15" s="447"/>
+      <c r="E15" s="447"/>
+      <c r="F15" s="447"/>
+      <c r="G15" s="448"/>
+      <c r="H15" s="429"/>
+      <c r="I15" s="429"/>
       <c r="T15" s="353"/>
       <c r="U15" s="353"/>
       <c r="V15" s="353"/>
@@ -32862,17 +32870,17 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="431" t="s">
+      <c r="A19" s="449" t="s">
         <v>376</v>
       </c>
-      <c r="B19" s="432"/>
-      <c r="C19" s="432"/>
-      <c r="D19" s="432"/>
-      <c r="E19" s="432"/>
-      <c r="F19" s="432"/>
-      <c r="G19" s="433"/>
-      <c r="H19" s="579"/>
-      <c r="I19" s="579"/>
+      <c r="B19" s="450"/>
+      <c r="C19" s="450"/>
+      <c r="D19" s="450"/>
+      <c r="E19" s="450"/>
+      <c r="F19" s="450"/>
+      <c r="G19" s="451"/>
+      <c r="H19" s="430"/>
+      <c r="I19" s="430"/>
       <c r="K19" s="368"/>
     </row>
     <row r="20" spans="1:35" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32992,17 +33000,17 @@
       </c>
     </row>
     <row r="23" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="431" t="s">
+      <c r="A23" s="449" t="s">
         <v>289</v>
       </c>
-      <c r="B23" s="432"/>
-      <c r="C23" s="432"/>
-      <c r="D23" s="432"/>
-      <c r="E23" s="432"/>
-      <c r="F23" s="432"/>
-      <c r="G23" s="433"/>
-      <c r="H23" s="579"/>
-      <c r="I23" s="579"/>
+      <c r="B23" s="450"/>
+      <c r="C23" s="450"/>
+      <c r="D23" s="450"/>
+      <c r="E23" s="450"/>
+      <c r="F23" s="450"/>
+      <c r="G23" s="451"/>
+      <c r="H23" s="430"/>
+      <c r="I23" s="430"/>
     </row>
     <row r="24" spans="1:35" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="315" t="s">
@@ -33319,23 +33327,23 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="185"/>
-      <c r="B36" s="585"/>
-      <c r="C36" s="585"/>
-      <c r="D36" s="585"/>
-      <c r="E36" s="585"/>
-      <c r="F36" s="585"/>
+      <c r="B36" s="434"/>
+      <c r="C36" s="434"/>
+      <c r="D36" s="434"/>
+      <c r="E36" s="434"/>
+      <c r="F36" s="434"/>
       <c r="G36" s="186"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="426" t="s">
+      <c r="A37" s="443" t="s">
         <v>762</v>
       </c>
-      <c r="B37" s="427"/>
-      <c r="C37" s="427"/>
-      <c r="D37" s="427"/>
-      <c r="E37" s="427"/>
-      <c r="F37" s="427"/>
-      <c r="G37" s="586"/>
+      <c r="B37" s="444"/>
+      <c r="C37" s="444"/>
+      <c r="D37" s="444"/>
+      <c r="E37" s="444"/>
+      <c r="F37" s="444"/>
+      <c r="G37" s="445"/>
       <c r="H37" s="370" t="s">
         <v>378</v>
       </c>
@@ -33359,34 +33367,34 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="418" t="s">
+      <c r="A38" s="452" t="s">
         <v>379</v>
       </c>
-      <c r="B38" s="419"/>
-      <c r="C38" s="419"/>
-      <c r="D38" s="419"/>
-      <c r="E38" s="419"/>
-      <c r="F38" s="419"/>
-      <c r="G38" s="421"/>
-      <c r="H38" s="579"/>
-      <c r="I38" s="579"/>
-      <c r="J38" s="579"/>
-      <c r="K38" s="579"/>
+      <c r="B38" s="453"/>
+      <c r="C38" s="453"/>
+      <c r="D38" s="453"/>
+      <c r="E38" s="453"/>
+      <c r="F38" s="453"/>
+      <c r="G38" s="454"/>
+      <c r="H38" s="430"/>
+      <c r="I38" s="430"/>
+      <c r="J38" s="430"/>
+      <c r="K38" s="430"/>
     </row>
     <row r="39" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="423" t="s">
+      <c r="A39" s="455" t="s">
         <v>439</v>
       </c>
-      <c r="B39" s="420"/>
-      <c r="C39" s="420"/>
-      <c r="D39" s="420"/>
-      <c r="E39" s="420"/>
-      <c r="F39" s="420"/>
-      <c r="G39" s="424"/>
-      <c r="H39" s="579"/>
-      <c r="I39" s="579"/>
-      <c r="J39" s="579"/>
-      <c r="K39" s="579"/>
+      <c r="B39" s="456"/>
+      <c r="C39" s="456"/>
+      <c r="D39" s="456"/>
+      <c r="E39" s="456"/>
+      <c r="F39" s="456"/>
+      <c r="G39" s="457"/>
+      <c r="H39" s="430"/>
+      <c r="I39" s="430"/>
+      <c r="J39" s="430"/>
+      <c r="K39" s="430"/>
     </row>
     <row r="40" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="114" t="s">
@@ -33527,19 +33535,19 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="573" t="s">
+      <c r="A44" s="458" t="s">
         <v>380</v>
       </c>
-      <c r="B44" s="422"/>
-      <c r="C44" s="422"/>
-      <c r="D44" s="422"/>
-      <c r="E44" s="422"/>
-      <c r="F44" s="422"/>
-      <c r="G44" s="574"/>
-      <c r="H44" s="579"/>
-      <c r="I44" s="579"/>
-      <c r="J44" s="579"/>
-      <c r="K44" s="579"/>
+      <c r="B44" s="459"/>
+      <c r="C44" s="459"/>
+      <c r="D44" s="459"/>
+      <c r="E44" s="459"/>
+      <c r="F44" s="459"/>
+      <c r="G44" s="460"/>
+      <c r="H44" s="430"/>
+      <c r="I44" s="430"/>
+      <c r="J44" s="430"/>
+      <c r="K44" s="430"/>
     </row>
     <row r="45" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="114" t="s">
@@ -33575,19 +33583,19 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="573" t="s">
+      <c r="A46" s="458" t="s">
         <v>381</v>
       </c>
-      <c r="B46" s="422"/>
-      <c r="C46" s="422"/>
-      <c r="D46" s="422"/>
-      <c r="E46" s="422"/>
-      <c r="F46" s="422"/>
-      <c r="G46" s="574"/>
-      <c r="H46" s="579"/>
-      <c r="I46" s="579"/>
-      <c r="J46" s="579"/>
-      <c r="K46" s="579"/>
+      <c r="B46" s="459"/>
+      <c r="C46" s="459"/>
+      <c r="D46" s="459"/>
+      <c r="E46" s="459"/>
+      <c r="F46" s="459"/>
+      <c r="G46" s="460"/>
+      <c r="H46" s="430"/>
+      <c r="I46" s="430"/>
+      <c r="J46" s="430"/>
+      <c r="K46" s="430"/>
     </row>
     <row r="47" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="126" t="s">
@@ -33687,19 +33695,19 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="573" t="s">
+      <c r="A50" s="458" t="s">
         <v>428</v>
       </c>
-      <c r="B50" s="422"/>
-      <c r="C50" s="422"/>
-      <c r="D50" s="422"/>
-      <c r="E50" s="422"/>
-      <c r="F50" s="422"/>
-      <c r="G50" s="574"/>
-      <c r="H50" s="579"/>
-      <c r="I50" s="579"/>
-      <c r="J50" s="579"/>
-      <c r="K50" s="579"/>
+      <c r="B50" s="459"/>
+      <c r="C50" s="459"/>
+      <c r="D50" s="459"/>
+      <c r="E50" s="459"/>
+      <c r="F50" s="459"/>
+      <c r="G50" s="460"/>
+      <c r="H50" s="430"/>
+      <c r="I50" s="430"/>
+      <c r="J50" s="430"/>
+      <c r="K50" s="430"/>
     </row>
     <row r="51" spans="1:11" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A51" s="114" t="s">
@@ -33826,19 +33834,19 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="573" t="s">
+      <c r="A55" s="458" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="422"/>
-      <c r="C55" s="422"/>
-      <c r="D55" s="422"/>
-      <c r="E55" s="422"/>
-      <c r="F55" s="422"/>
-      <c r="G55" s="574"/>
-      <c r="H55" s="579"/>
-      <c r="I55" s="579"/>
-      <c r="J55" s="579"/>
-      <c r="K55" s="579"/>
+      <c r="B55" s="459"/>
+      <c r="C55" s="459"/>
+      <c r="D55" s="459"/>
+      <c r="E55" s="459"/>
+      <c r="F55" s="459"/>
+      <c r="G55" s="460"/>
+      <c r="H55" s="430"/>
+      <c r="I55" s="430"/>
+      <c r="J55" s="430"/>
+      <c r="K55" s="430"/>
     </row>
     <row r="56" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A56" s="127" t="s">
@@ -34056,34 +34064,34 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="575" t="s">
+      <c r="A63" s="461" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="425"/>
-      <c r="C63" s="425"/>
-      <c r="D63" s="425"/>
-      <c r="E63" s="425"/>
-      <c r="F63" s="425"/>
-      <c r="G63" s="587"/>
-      <c r="H63" s="579"/>
-      <c r="I63" s="579"/>
-      <c r="J63" s="579"/>
-      <c r="K63" s="579"/>
+      <c r="B63" s="462"/>
+      <c r="C63" s="462"/>
+      <c r="D63" s="462"/>
+      <c r="E63" s="462"/>
+      <c r="F63" s="462"/>
+      <c r="G63" s="463"/>
+      <c r="H63" s="430"/>
+      <c r="I63" s="430"/>
+      <c r="J63" s="430"/>
+      <c r="K63" s="430"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="423" t="s">
+      <c r="A64" s="455" t="s">
         <v>382</v>
       </c>
-      <c r="B64" s="420"/>
-      <c r="C64" s="420"/>
-      <c r="D64" s="420"/>
-      <c r="E64" s="420"/>
-      <c r="F64" s="420"/>
-      <c r="G64" s="424"/>
-      <c r="H64" s="579"/>
-      <c r="I64" s="579"/>
-      <c r="J64" s="579"/>
-      <c r="K64" s="579"/>
+      <c r="B64" s="456"/>
+      <c r="C64" s="456"/>
+      <c r="D64" s="456"/>
+      <c r="E64" s="456"/>
+      <c r="F64" s="456"/>
+      <c r="G64" s="457"/>
+      <c r="H64" s="430"/>
+      <c r="I64" s="430"/>
+      <c r="J64" s="430"/>
+      <c r="K64" s="430"/>
     </row>
     <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="127" t="s">
@@ -34218,19 +34226,19 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="573" t="s">
+      <c r="A69" s="458" t="s">
         <v>383</v>
       </c>
-      <c r="B69" s="422"/>
-      <c r="C69" s="422"/>
-      <c r="D69" s="422"/>
-      <c r="E69" s="422"/>
-      <c r="F69" s="422"/>
-      <c r="G69" s="574"/>
-      <c r="H69" s="579"/>
-      <c r="I69" s="579"/>
-      <c r="J69" s="579"/>
-      <c r="K69" s="579"/>
+      <c r="B69" s="459"/>
+      <c r="C69" s="459"/>
+      <c r="D69" s="459"/>
+      <c r="E69" s="459"/>
+      <c r="F69" s="459"/>
+      <c r="G69" s="460"/>
+      <c r="H69" s="430"/>
+      <c r="I69" s="430"/>
+      <c r="J69" s="430"/>
+      <c r="K69" s="430"/>
     </row>
     <row r="70" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="127" t="s">
@@ -34480,24 +34488,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A69:G69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -34580,40 +34588,40 @@
       <c r="A1" s="78" t="s">
         <v>702</v>
       </c>
-      <c r="B1" s="434" t="s">
+      <c r="B1" s="435" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
       <c r="G1" s="78" t="s">
         <v>322</v>
       </c>
       <c r="H1" s="360"/>
-      <c r="L1" s="456" t="s">
+      <c r="L1" s="464" t="s">
         <v>655</v>
       </c>
-      <c r="M1" s="456"/>
-      <c r="N1" s="456"/>
-      <c r="O1" s="456"/>
-      <c r="P1" s="456" t="s">
+      <c r="M1" s="464"/>
+      <c r="N1" s="464"/>
+      <c r="O1" s="464"/>
+      <c r="P1" s="464" t="s">
         <v>656</v>
       </c>
-      <c r="Q1" s="456"/>
-      <c r="R1" s="456"/>
-      <c r="S1" s="456"/>
+      <c r="Q1" s="464"/>
+      <c r="R1" s="464"/>
+      <c r="S1" s="464"/>
     </row>
     <row r="2" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="446" t="s">
+      <c r="A2" s="477" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="446"/>
-      <c r="C2" s="446"/>
-      <c r="D2" s="446"/>
-      <c r="E2" s="446"/>
-      <c r="F2" s="446"/>
-      <c r="G2" s="446"/>
+      <c r="B2" s="477"/>
+      <c r="C2" s="477"/>
+      <c r="D2" s="477"/>
+      <c r="E2" s="477"/>
+      <c r="F2" s="477"/>
+      <c r="G2" s="477"/>
       <c r="L2" s="362" t="s">
         <v>446</v>
       </c>
@@ -34640,15 +34648,15 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="447" t="s">
+      <c r="A3" s="478" t="s">
         <v>700</v>
       </c>
-      <c r="B3" s="447"/>
-      <c r="C3" s="447"/>
-      <c r="D3" s="447"/>
-      <c r="E3" s="447"/>
-      <c r="F3" s="447"/>
-      <c r="G3" s="447"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
       <c r="L3" s="367">
         <f>'Potential for Exposure Calc'!W18</f>
         <v>0</v>
@@ -34683,16 +34691,16 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="471" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="463"/>
-      <c r="C4" s="463"/>
+      <c r="B4" s="472"/>
+      <c r="C4" s="472"/>
       <c r="D4" s="222"/>
-      <c r="E4" s="464" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="464"/>
+      <c r="E4" s="473" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="473"/>
       <c r="G4" s="373" t="b">
         <v>0</v>
       </c>
@@ -34733,15 +34741,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="448" t="s">
+      <c r="A5" s="479" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="449"/>
-      <c r="C5" s="449"/>
-      <c r="D5" s="449"/>
-      <c r="E5" s="449"/>
-      <c r="F5" s="449"/>
-      <c r="G5" s="450"/>
+      <c r="B5" s="480"/>
+      <c r="C5" s="480"/>
+      <c r="D5" s="480"/>
+      <c r="E5" s="480"/>
+      <c r="F5" s="480"/>
+      <c r="G5" s="481"/>
       <c r="K5" s="358" t="s">
         <v>74</v>
       </c>
@@ -34779,15 +34787,15 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="443" t="s">
+      <c r="A6" s="474" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="444"/>
-      <c r="C6" s="444"/>
-      <c r="D6" s="444"/>
-      <c r="E6" s="444"/>
-      <c r="F6" s="444"/>
-      <c r="G6" s="445"/>
+      <c r="B6" s="475"/>
+      <c r="C6" s="475"/>
+      <c r="D6" s="475"/>
+      <c r="E6" s="475"/>
+      <c r="F6" s="475"/>
+      <c r="G6" s="476"/>
     </row>
     <row r="7" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="240" t="s">
@@ -34796,10 +34804,10 @@
       <c r="B7" s="229" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="454" t="s">
+      <c r="C7" s="485" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="454"/>
+      <c r="D7" s="485"/>
       <c r="E7" s="218"/>
       <c r="F7" s="230" t="s">
         <v>294</v>
@@ -34807,15 +34815,15 @@
       <c r="G7" s="374"/>
     </row>
     <row r="8" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="443" t="s">
+      <c r="A8" s="474" t="s">
         <v>475</v>
       </c>
-      <c r="B8" s="444"/>
-      <c r="C8" s="444"/>
-      <c r="D8" s="444"/>
-      <c r="E8" s="444"/>
-      <c r="F8" s="444"/>
-      <c r="G8" s="445"/>
+      <c r="B8" s="475"/>
+      <c r="C8" s="475"/>
+      <c r="D8" s="475"/>
+      <c r="E8" s="475"/>
+      <c r="F8" s="475"/>
+      <c r="G8" s="476"/>
     </row>
     <row r="9" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="241" t="s">
@@ -34837,15 +34845,15 @@
       <c r="G9" s="374"/>
     </row>
     <row r="10" spans="1:19" ht="213.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="443" t="s">
+      <c r="A10" s="474" t="s">
         <v>476</v>
       </c>
-      <c r="B10" s="444"/>
-      <c r="C10" s="444"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="444"/>
-      <c r="F10" s="444"/>
-      <c r="G10" s="445"/>
+      <c r="B10" s="475"/>
+      <c r="C10" s="475"/>
+      <c r="D10" s="475"/>
+      <c r="E10" s="475"/>
+      <c r="F10" s="475"/>
+      <c r="G10" s="476"/>
     </row>
     <row r="11" spans="1:19" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="241" t="s">
@@ -34854,10 +34862,10 @@
       <c r="B11" s="229" t="s">
         <v>685</v>
       </c>
-      <c r="C11" s="454" t="s">
+      <c r="C11" s="485" t="s">
         <v>686</v>
       </c>
-      <c r="D11" s="454"/>
+      <c r="D11" s="485"/>
       <c r="E11" s="218"/>
       <c r="F11" s="230" t="s">
         <v>687</v>
@@ -34865,15 +34873,15 @@
       <c r="G11" s="374"/>
     </row>
     <row r="12" spans="1:19" ht="188.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="443" t="s">
+      <c r="A12" s="474" t="s">
         <v>477</v>
       </c>
-      <c r="B12" s="444"/>
-      <c r="C12" s="444"/>
-      <c r="D12" s="444"/>
-      <c r="E12" s="444"/>
-      <c r="F12" s="444"/>
-      <c r="G12" s="445"/>
+      <c r="B12" s="475"/>
+      <c r="C12" s="475"/>
+      <c r="D12" s="475"/>
+      <c r="E12" s="475"/>
+      <c r="F12" s="475"/>
+      <c r="G12" s="476"/>
     </row>
     <row r="13" spans="1:19" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="241" t="s">
@@ -34883,94 +34891,94 @@
         <v>688</v>
       </c>
       <c r="C13" s="223"/>
-      <c r="D13" s="455" t="s">
+      <c r="D13" s="469" t="s">
         <v>689</v>
       </c>
-      <c r="E13" s="455"/>
+      <c r="E13" s="469"/>
       <c r="F13" s="230" t="s">
         <v>690</v>
       </c>
       <c r="G13" s="374"/>
     </row>
     <row r="14" spans="1:19" ht="172.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="443" t="s">
+      <c r="A14" s="474" t="s">
         <v>478</v>
       </c>
-      <c r="B14" s="444"/>
-      <c r="C14" s="444"/>
-      <c r="D14" s="444"/>
-      <c r="E14" s="444"/>
-      <c r="F14" s="444"/>
-      <c r="G14" s="445"/>
+      <c r="B14" s="475"/>
+      <c r="C14" s="475"/>
+      <c r="D14" s="475"/>
+      <c r="E14" s="475"/>
+      <c r="F14" s="475"/>
+      <c r="G14" s="476"/>
     </row>
     <row r="15" spans="1:19" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="241" t="s">
         <v>661</v>
       </c>
-      <c r="B15" s="461" t="s">
+      <c r="B15" s="470" t="s">
         <v>691</v>
       </c>
-      <c r="C15" s="461"/>
-      <c r="D15" s="455" t="s">
+      <c r="C15" s="470"/>
+      <c r="D15" s="469" t="s">
         <v>692</v>
       </c>
-      <c r="E15" s="455"/>
+      <c r="E15" s="469"/>
       <c r="F15" s="230" t="s">
         <v>693</v>
       </c>
       <c r="G15" s="374"/>
     </row>
     <row r="16" spans="1:19" ht="216" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="443" t="s">
+      <c r="A16" s="474" t="s">
         <v>479</v>
       </c>
-      <c r="B16" s="444"/>
-      <c r="C16" s="444"/>
-      <c r="D16" s="444"/>
-      <c r="E16" s="444"/>
-      <c r="F16" s="444"/>
-      <c r="G16" s="445"/>
+      <c r="B16" s="475"/>
+      <c r="C16" s="475"/>
+      <c r="D16" s="475"/>
+      <c r="E16" s="475"/>
+      <c r="F16" s="475"/>
+      <c r="G16" s="476"/>
     </row>
     <row r="17" spans="1:7" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="241" t="s">
         <v>662</v>
       </c>
-      <c r="B17" s="461" t="s">
+      <c r="B17" s="470" t="s">
         <v>694</v>
       </c>
-      <c r="C17" s="461"/>
-      <c r="D17" s="455" t="s">
+      <c r="C17" s="470"/>
+      <c r="D17" s="469" t="s">
         <v>695</v>
       </c>
-      <c r="E17" s="455"/>
+      <c r="E17" s="469"/>
       <c r="F17" s="230" t="s">
         <v>696</v>
       </c>
       <c r="G17" s="374"/>
     </row>
     <row r="18" spans="1:7" ht="205.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="443" t="s">
+      <c r="A18" s="474" t="s">
         <v>480</v>
       </c>
-      <c r="B18" s="444"/>
-      <c r="C18" s="444"/>
-      <c r="D18" s="444"/>
-      <c r="E18" s="444"/>
-      <c r="F18" s="444"/>
-      <c r="G18" s="445"/>
+      <c r="B18" s="475"/>
+      <c r="C18" s="475"/>
+      <c r="D18" s="475"/>
+      <c r="E18" s="475"/>
+      <c r="F18" s="475"/>
+      <c r="G18" s="476"/>
     </row>
     <row r="19" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="231" t="s">
         <v>663</v>
       </c>
-      <c r="B19" s="461" t="s">
+      <c r="B19" s="470" t="s">
         <v>697</v>
       </c>
-      <c r="C19" s="461"/>
-      <c r="D19" s="455" t="s">
+      <c r="C19" s="470"/>
+      <c r="D19" s="469" t="s">
         <v>698</v>
       </c>
-      <c r="E19" s="455"/>
+      <c r="E19" s="469"/>
       <c r="F19" s="230" t="s">
         <v>699</v>
       </c>
@@ -34986,26 +34994,26 @@
       <c r="G20" s="215"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="451" t="s">
+      <c r="A21" s="482" t="s">
         <v>481</v>
       </c>
-      <c r="B21" s="452"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="452"/>
-      <c r="E21" s="452"/>
-      <c r="F21" s="452"/>
-      <c r="G21" s="453"/>
+      <c r="B21" s="483"/>
+      <c r="C21" s="483"/>
+      <c r="D21" s="483"/>
+      <c r="E21" s="483"/>
+      <c r="F21" s="483"/>
+      <c r="G21" s="484"/>
     </row>
     <row r="22" spans="1:7" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="440" t="s">
+      <c r="A22" s="486" t="s">
         <v>482</v>
       </c>
-      <c r="B22" s="441"/>
-      <c r="C22" s="441"/>
-      <c r="D22" s="441"/>
-      <c r="E22" s="441"/>
-      <c r="F22" s="441"/>
-      <c r="G22" s="442"/>
+      <c r="B22" s="487"/>
+      <c r="C22" s="487"/>
+      <c r="D22" s="487"/>
+      <c r="E22" s="487"/>
+      <c r="F22" s="487"/>
+      <c r="G22" s="488"/>
     </row>
     <row r="23" spans="1:7" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="242" t="s">
@@ -35013,10 +35021,10 @@
       </c>
       <c r="B23" s="232"/>
       <c r="C23" s="233"/>
-      <c r="D23" s="460" t="s">
+      <c r="D23" s="468" t="s">
         <v>703</v>
       </c>
-      <c r="E23" s="460"/>
+      <c r="E23" s="468"/>
       <c r="F23" s="234" t="s">
         <v>704</v>
       </c>
@@ -35045,14 +35053,14 @@
       <c r="A25" s="242" t="s">
         <v>666</v>
       </c>
-      <c r="B25" s="458" t="s">
+      <c r="B25" s="466" t="s">
         <v>709</v>
       </c>
-      <c r="C25" s="459"/>
-      <c r="D25" s="460" t="s">
+      <c r="C25" s="467"/>
+      <c r="D25" s="468" t="s">
         <v>710</v>
       </c>
-      <c r="E25" s="460"/>
+      <c r="E25" s="468"/>
       <c r="F25" s="234" t="s">
         <v>711</v>
       </c>
@@ -35064,10 +35072,10 @@
       </c>
       <c r="B26" s="232"/>
       <c r="C26" s="238"/>
-      <c r="D26" s="457" t="s">
+      <c r="D26" s="465" t="s">
         <v>713</v>
       </c>
-      <c r="E26" s="457"/>
+      <c r="E26" s="465"/>
       <c r="F26" s="214" t="s">
         <v>712</v>
       </c>
@@ -35079,10 +35087,10 @@
       </c>
       <c r="B27" s="232"/>
       <c r="C27" s="238"/>
-      <c r="D27" s="457" t="s">
+      <c r="D27" s="465" t="s">
         <v>715</v>
       </c>
-      <c r="E27" s="457"/>
+      <c r="E27" s="465"/>
       <c r="F27" s="239" t="s">
         <v>714</v>
       </c>
@@ -35096,10 +35104,10 @@
       <c r="C28" s="233" t="s">
         <v>716</v>
       </c>
-      <c r="D28" s="457" t="s">
+      <c r="D28" s="465" t="s">
         <v>717</v>
       </c>
-      <c r="E28" s="457"/>
+      <c r="E28" s="465"/>
       <c r="F28" s="239" t="s">
         <v>718</v>
       </c>
@@ -35107,6 +35115,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A8:G8"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="D28:E28"/>
@@ -35123,22 +35147,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A21:G22 A24:F24 A23:D23 F23 A26:D28 D25 A25 F25:F28">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -35214,8 +35222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4846A3A0-E998-4F78-A0BF-622B1FF69DEE}">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35231,82 +35239,86 @@
     <col min="10" max="24" width="9.140625" style="358"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="434" t="s">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="435" t="s">
         <v>702</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434" t="s">
+      <c r="B1" s="435"/>
+      <c r="C1" s="435" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="434"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="435"/>
       <c r="H1" s="75" t="s">
         <v>322</v>
       </c>
       <c r="I1" s="75"/>
-      <c r="N1" s="456" t="s">
+      <c r="N1" s="464" t="s">
         <v>655</v>
       </c>
-      <c r="O1" s="456"/>
-      <c r="P1" s="456"/>
-      <c r="Q1" s="456"/>
-      <c r="R1" s="456" t="s">
+      <c r="O1" s="464"/>
+      <c r="P1" s="464"/>
+      <c r="Q1" s="464"/>
+      <c r="R1" s="464" t="s">
         <v>656</v>
       </c>
-      <c r="S1" s="456"/>
-      <c r="T1" s="456"/>
-      <c r="U1" s="456"/>
-    </row>
-    <row r="2" spans="1:21" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="482" t="s">
+      <c r="S1" s="464"/>
+      <c r="T1" s="464"/>
+      <c r="U1" s="464"/>
+      <c r="V1" s="588"/>
+      <c r="W1" s="588"/>
+    </row>
+    <row r="2" spans="1:23" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="534" t="s">
         <v>483</v>
       </c>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="483"/>
-      <c r="F2" s="483"/>
-      <c r="G2" s="483"/>
-      <c r="H2" s="484"/>
+      <c r="B2" s="535"/>
+      <c r="C2" s="535"/>
+      <c r="D2" s="535"/>
+      <c r="E2" s="535"/>
+      <c r="F2" s="535"/>
+      <c r="G2" s="535"/>
+      <c r="H2" s="536"/>
       <c r="I2" s="377"/>
       <c r="N2" s="362" t="s">
+        <v>772</v>
+      </c>
+      <c r="O2" s="362" t="s">
+        <v>773</v>
+      </c>
+      <c r="P2" s="362" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q2" s="362" t="s">
+        <v>771</v>
+      </c>
+      <c r="R2" s="362" t="s">
         <v>767</v>
       </c>
-      <c r="O2" s="362" t="s">
+      <c r="S2" s="362" t="s">
         <v>768</v>
       </c>
-      <c r="P2" s="362" t="s">
+      <c r="T2" s="362" t="s">
         <v>769</v>
       </c>
-      <c r="Q2" s="362" t="s">
+      <c r="U2" s="362" t="s">
         <v>770</v>
       </c>
-      <c r="R2" s="362" t="s">
-        <v>772</v>
-      </c>
-      <c r="S2" s="362" t="s">
-        <v>773</v>
-      </c>
-      <c r="T2" s="362" t="s">
-        <v>774</v>
-      </c>
-      <c r="U2" s="362" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="485" t="s">
+      <c r="V2" s="588"/>
+      <c r="W2" s="588"/>
+    </row>
+    <row r="3" spans="1:23" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="537" t="s">
         <v>484</v>
       </c>
-      <c r="B3" s="486"/>
-      <c r="C3" s="486"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="486"/>
-      <c r="F3" s="486"/>
-      <c r="G3" s="486"/>
+      <c r="B3" s="538"/>
+      <c r="C3" s="538"/>
+      <c r="D3" s="538"/>
+      <c r="E3" s="538"/>
+      <c r="F3" s="538"/>
+      <c r="G3" s="538"/>
       <c r="H3" s="225"/>
       <c r="I3" s="353"/>
       <c r="N3" s="380">
@@ -35341,19 +35353,21 @@
         <f>'Biosafety Effectiveness Calc'!AD48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="487" t="s">
+      <c r="V3" s="588"/>
+      <c r="W3" s="588"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="539" t="s">
         <v>485</v>
       </c>
-      <c r="B4" s="488"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="488"/>
-      <c r="F4" s="488"/>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
-      <c r="I4" s="489"/>
+      <c r="B4" s="540"/>
+      <c r="C4" s="540"/>
+      <c r="D4" s="540"/>
+      <c r="E4" s="540"/>
+      <c r="F4" s="540"/>
+      <c r="G4" s="540"/>
+      <c r="H4" s="540"/>
+      <c r="I4" s="541"/>
       <c r="M4" s="358" t="s">
         <v>73</v>
       </c>
@@ -35389,8 +35403,10 @@
         <f>'Laboratory Procedures'!S4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="588"/>
+      <c r="W4" s="588"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="244"/>
       <c r="B5" s="274"/>
       <c r="C5" s="275" t="s">
@@ -35429,19 +35445,21 @@
         <f>'Laboratory Procedures'!S5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="490" t="s">
+      <c r="V5" s="588"/>
+      <c r="W5" s="588"/>
+    </row>
+    <row r="6" spans="1:23" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="542" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="491"/>
-      <c r="C6" s="491"/>
-      <c r="D6" s="491"/>
-      <c r="E6" s="491"/>
-      <c r="F6" s="491"/>
-      <c r="G6" s="491"/>
-      <c r="H6" s="491"/>
-      <c r="I6" s="492"/>
+      <c r="B6" s="543"/>
+      <c r="C6" s="543"/>
+      <c r="D6" s="543"/>
+      <c r="E6" s="543"/>
+      <c r="F6" s="543"/>
+      <c r="G6" s="543"/>
+      <c r="H6" s="543"/>
+      <c r="I6" s="544"/>
       <c r="N6" s="358">
         <f>(N3*0.98)*N4</f>
         <v>0</v>
@@ -35474,18 +35492,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="188.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="588"/>
+      <c r="W6" s="588"/>
+    </row>
+    <row r="7" spans="1:23" ht="188.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="228">
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" s="227" t="s">
         <v>487</v>
       </c>
-      <c r="C7" s="481" t="s">
+      <c r="C7" s="532" t="s">
         <v>488</v>
       </c>
-      <c r="D7" s="476"/>
+      <c r="D7" s="533"/>
       <c r="E7" s="263" t="s">
         <v>489</v>
       </c>
@@ -35513,105 +35533,107 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="588"/>
+      <c r="W7" s="588"/>
+    </row>
+    <row r="8" spans="1:23" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="255">
         <v>1.2</v>
       </c>
       <c r="B8" s="256" t="s">
         <v>671</v>
       </c>
-      <c r="C8" s="478" t="s">
+      <c r="C8" s="523" t="s">
         <v>492</v>
       </c>
-      <c r="D8" s="479"/>
-      <c r="E8" s="480" t="s">
+      <c r="D8" s="524"/>
+      <c r="E8" s="525" t="s">
         <v>493</v>
       </c>
-      <c r="F8" s="480"/>
+      <c r="F8" s="525"/>
       <c r="G8" s="261" t="s">
         <v>494</v>
       </c>
       <c r="H8" s="302"/>
       <c r="I8" s="353"/>
     </row>
-    <row r="9" spans="1:21" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="493" t="s">
+    <row r="9" spans="1:23" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="526" t="s">
         <v>495</v>
       </c>
-      <c r="B9" s="494"/>
-      <c r="C9" s="494"/>
-      <c r="D9" s="494"/>
-      <c r="E9" s="494"/>
-      <c r="F9" s="494"/>
-      <c r="G9" s="494"/>
-      <c r="H9" s="494"/>
-      <c r="I9" s="495"/>
-    </row>
-    <row r="10" spans="1:21" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="527"/>
+      <c r="C9" s="527"/>
+      <c r="D9" s="527"/>
+      <c r="E9" s="527"/>
+      <c r="F9" s="527"/>
+      <c r="G9" s="527"/>
+      <c r="H9" s="527"/>
+      <c r="I9" s="528"/>
+    </row>
+    <row r="10" spans="1:23" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="228">
         <v>1.3</v>
       </c>
       <c r="B10" s="227" t="s">
         <v>496</v>
       </c>
-      <c r="C10" s="476" t="s">
+      <c r="C10" s="533" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="476"/>
-      <c r="E10" s="477" t="s">
+      <c r="D10" s="533"/>
+      <c r="E10" s="519" t="s">
         <v>498</v>
       </c>
-      <c r="F10" s="477"/>
+      <c r="F10" s="519"/>
       <c r="G10" s="262" t="s">
         <v>499</v>
       </c>
       <c r="H10" s="302"/>
       <c r="I10" s="353"/>
     </row>
-    <row r="11" spans="1:21" ht="155.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="155.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="252">
         <v>1.4</v>
       </c>
       <c r="B11" s="253" t="s">
         <v>500</v>
       </c>
-      <c r="C11" s="496" t="s">
+      <c r="C11" s="529" t="s">
         <v>501</v>
       </c>
-      <c r="D11" s="496"/>
-      <c r="E11" s="497" t="s">
+      <c r="D11" s="529"/>
+      <c r="E11" s="530" t="s">
         <v>502</v>
       </c>
-      <c r="F11" s="497"/>
+      <c r="F11" s="530"/>
       <c r="G11" s="251" t="s">
         <v>503</v>
       </c>
       <c r="H11" s="302"/>
       <c r="I11" s="353"/>
     </row>
-    <row r="12" spans="1:21" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="252">
         <v>1.5</v>
       </c>
       <c r="B12" s="253" t="s">
         <v>504</v>
       </c>
-      <c r="C12" s="498" t="s">
+      <c r="C12" s="531" t="s">
         <v>505</v>
       </c>
-      <c r="D12" s="496"/>
-      <c r="E12" s="497" t="s">
+      <c r="D12" s="529"/>
+      <c r="E12" s="530" t="s">
         <v>506</v>
       </c>
-      <c r="F12" s="497"/>
+      <c r="F12" s="530"/>
       <c r="G12" s="251" t="s">
         <v>507</v>
       </c>
       <c r="H12" s="302"/>
       <c r="I12" s="353"/>
     </row>
-    <row r="13" spans="1:21" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="255">
         <v>1.6</v>
       </c>
@@ -35624,65 +35646,65 @@
       <c r="D13" s="265" t="s">
         <v>510</v>
       </c>
-      <c r="E13" s="480" t="s">
+      <c r="E13" s="525" t="s">
         <v>511</v>
       </c>
-      <c r="F13" s="480"/>
+      <c r="F13" s="525"/>
       <c r="G13" s="261" t="s">
         <v>512</v>
       </c>
       <c r="H13" s="302"/>
       <c r="I13" s="353"/>
     </row>
-    <row r="14" spans="1:21" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="493" t="s">
+    <row r="14" spans="1:23" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="526" t="s">
         <v>513</v>
       </c>
-      <c r="B14" s="494"/>
-      <c r="C14" s="494"/>
-      <c r="D14" s="494"/>
-      <c r="E14" s="494"/>
-      <c r="F14" s="494"/>
-      <c r="G14" s="494"/>
-      <c r="H14" s="494"/>
-      <c r="I14" s="495"/>
-    </row>
-    <row r="15" spans="1:21" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="527"/>
+      <c r="C14" s="527"/>
+      <c r="D14" s="527"/>
+      <c r="E14" s="527"/>
+      <c r="F14" s="527"/>
+      <c r="G14" s="527"/>
+      <c r="H14" s="527"/>
+      <c r="I14" s="528"/>
+    </row>
+    <row r="15" spans="1:23" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="228">
         <v>1.7</v>
       </c>
       <c r="B15" s="227" t="s">
         <v>514</v>
       </c>
-      <c r="C15" s="481" t="s">
+      <c r="C15" s="532" t="s">
         <v>515</v>
       </c>
-      <c r="D15" s="476"/>
-      <c r="E15" s="477" t="s">
+      <c r="D15" s="533"/>
+      <c r="E15" s="519" t="s">
         <v>516</v>
       </c>
-      <c r="F15" s="477"/>
+      <c r="F15" s="519"/>
       <c r="G15" s="262" t="s">
         <v>517</v>
       </c>
       <c r="H15" s="302"/>
       <c r="I15" s="353"/>
     </row>
-    <row r="16" spans="1:21" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="252">
         <v>1.8</v>
       </c>
       <c r="B16" s="253" t="s">
         <v>518</v>
       </c>
-      <c r="C16" s="498" t="s">
+      <c r="C16" s="531" t="s">
         <v>519</v>
       </c>
-      <c r="D16" s="496"/>
-      <c r="E16" s="497" t="s">
+      <c r="D16" s="529"/>
+      <c r="E16" s="530" t="s">
         <v>520</v>
       </c>
-      <c r="F16" s="497"/>
+      <c r="F16" s="530"/>
       <c r="G16" s="251" t="s">
         <v>521</v>
       </c>
@@ -35696,14 +35718,14 @@
       <c r="B17" s="256" t="s">
         <v>522</v>
       </c>
-      <c r="C17" s="478" t="s">
+      <c r="C17" s="523" t="s">
         <v>523</v>
       </c>
-      <c r="D17" s="479"/>
-      <c r="E17" s="480" t="s">
+      <c r="D17" s="524"/>
+      <c r="E17" s="525" t="s">
         <v>524</v>
       </c>
-      <c r="F17" s="480"/>
+      <c r="F17" s="525"/>
       <c r="G17" s="261" t="s">
         <v>525</v>
       </c>
@@ -35711,17 +35733,17 @@
       <c r="I17" s="353"/>
     </row>
     <row r="18" spans="1:14" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="493" t="s">
+      <c r="A18" s="526" t="s">
         <v>526</v>
       </c>
-      <c r="B18" s="494"/>
-      <c r="C18" s="494"/>
-      <c r="D18" s="494"/>
-      <c r="E18" s="494"/>
-      <c r="F18" s="494"/>
-      <c r="G18" s="494"/>
-      <c r="H18" s="494"/>
-      <c r="I18" s="495"/>
+      <c r="B18" s="527"/>
+      <c r="C18" s="527"/>
+      <c r="D18" s="527"/>
+      <c r="E18" s="527"/>
+      <c r="F18" s="527"/>
+      <c r="G18" s="527"/>
+      <c r="H18" s="527"/>
+      <c r="I18" s="528"/>
     </row>
     <row r="19" spans="1:14" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="226" t="s">
@@ -35736,10 +35758,10 @@
       <c r="D19" s="155" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="477" t="s">
+      <c r="E19" s="519" t="s">
         <v>530</v>
       </c>
-      <c r="F19" s="477"/>
+      <c r="F19" s="519"/>
       <c r="G19" s="262" t="s">
         <v>531</v>
       </c>
@@ -35748,17 +35770,17 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="499" t="s">
+      <c r="A22" s="520" t="s">
         <v>532</v>
       </c>
-      <c r="B22" s="500"/>
-      <c r="C22" s="500"/>
-      <c r="D22" s="500"/>
-      <c r="E22" s="500"/>
-      <c r="F22" s="500"/>
-      <c r="G22" s="500"/>
-      <c r="H22" s="500"/>
-      <c r="I22" s="501"/>
+      <c r="B22" s="521"/>
+      <c r="C22" s="521"/>
+      <c r="D22" s="521"/>
+      <c r="E22" s="521"/>
+      <c r="F22" s="521"/>
+      <c r="G22" s="521"/>
+      <c r="H22" s="521"/>
+      <c r="I22" s="522"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="278"/>
@@ -35782,17 +35804,17 @@
       <c r="I23" s="352"/>
     </row>
     <row r="24" spans="1:14" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="502" t="s">
+      <c r="A24" s="516" t="s">
         <v>533</v>
       </c>
-      <c r="B24" s="503"/>
-      <c r="C24" s="503"/>
-      <c r="D24" s="503"/>
-      <c r="E24" s="503"/>
-      <c r="F24" s="503"/>
-      <c r="G24" s="503"/>
-      <c r="H24" s="503"/>
-      <c r="I24" s="504"/>
+      <c r="B24" s="517"/>
+      <c r="C24" s="517"/>
+      <c r="D24" s="517"/>
+      <c r="E24" s="517"/>
+      <c r="F24" s="517"/>
+      <c r="G24" s="517"/>
+      <c r="H24" s="517"/>
+      <c r="I24" s="518"/>
     </row>
     <row r="25" spans="1:14" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="252">
@@ -35801,10 +35823,10 @@
       <c r="B25" s="253" t="s">
         <v>534</v>
       </c>
-      <c r="C25" s="465" t="s">
+      <c r="C25" s="498" t="s">
         <v>535</v>
       </c>
-      <c r="D25" s="466"/>
+      <c r="D25" s="499"/>
       <c r="E25" s="156" t="s">
         <v>80</v>
       </c>
@@ -35874,10 +35896,10 @@
       <c r="B28" s="253" t="s">
         <v>550</v>
       </c>
-      <c r="C28" s="465" t="s">
+      <c r="C28" s="498" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="466"/>
+      <c r="D28" s="499"/>
       <c r="E28" s="156" t="s">
         <v>551</v>
       </c>
@@ -35897,10 +35919,10 @@
       <c r="B29" s="253" t="s">
         <v>553</v>
       </c>
-      <c r="C29" s="465" t="s">
+      <c r="C29" s="498" t="s">
         <v>554</v>
       </c>
-      <c r="D29" s="466"/>
+      <c r="D29" s="499"/>
       <c r="E29" s="156" t="s">
         <v>555</v>
       </c>
@@ -35920,10 +35942,10 @@
       <c r="B30" s="253" t="s">
         <v>558</v>
       </c>
-      <c r="C30" s="465" t="s">
+      <c r="C30" s="498" t="s">
         <v>559</v>
       </c>
-      <c r="D30" s="466"/>
+      <c r="D30" s="499"/>
       <c r="E30" s="156"/>
       <c r="F30" s="157" t="s">
         <v>560</v>
@@ -35941,10 +35963,10 @@
       <c r="B31" s="253" t="s">
         <v>562</v>
       </c>
-      <c r="C31" s="465" t="s">
+      <c r="C31" s="498" t="s">
         <v>563</v>
       </c>
-      <c r="D31" s="466"/>
+      <c r="D31" s="499"/>
       <c r="E31" s="156" t="s">
         <v>564</v>
       </c>
@@ -35964,10 +35986,10 @@
       <c r="B32" s="253" t="s">
         <v>567</v>
       </c>
-      <c r="C32" s="465" t="s">
+      <c r="C32" s="498" t="s">
         <v>568</v>
       </c>
-      <c r="D32" s="466"/>
+      <c r="D32" s="499"/>
       <c r="E32" s="156" t="s">
         <v>569</v>
       </c>
@@ -35990,10 +36012,10 @@
       <c r="B33" s="253" t="s">
         <v>572</v>
       </c>
-      <c r="C33" s="465" t="s">
+      <c r="C33" s="498" t="s">
         <v>573</v>
       </c>
-      <c r="D33" s="466"/>
+      <c r="D33" s="499"/>
       <c r="E33" s="156" t="s">
         <v>574</v>
       </c>
@@ -36013,10 +36035,10 @@
       <c r="B34" s="253" t="s">
         <v>578</v>
       </c>
-      <c r="C34" s="465" t="s">
+      <c r="C34" s="498" t="s">
         <v>579</v>
       </c>
-      <c r="D34" s="466"/>
+      <c r="D34" s="499"/>
       <c r="E34" s="156" t="s">
         <v>775</v>
       </c>
@@ -36037,10 +36059,10 @@
       <c r="B35" s="253" t="s">
         <v>581</v>
       </c>
-      <c r="C35" s="465" t="s">
+      <c r="C35" s="498" t="s">
         <v>582</v>
       </c>
-      <c r="D35" s="466"/>
+      <c r="D35" s="499"/>
       <c r="E35" s="156"/>
       <c r="F35" s="157" t="s">
         <v>583</v>
@@ -36061,10 +36083,10 @@
       <c r="B36" s="253" t="s">
         <v>678</v>
       </c>
-      <c r="C36" s="465" t="s">
+      <c r="C36" s="498" t="s">
         <v>585</v>
       </c>
-      <c r="D36" s="466"/>
+      <c r="D36" s="499"/>
       <c r="E36" s="156"/>
       <c r="F36" s="157" t="s">
         <v>586</v>
@@ -36085,10 +36107,10 @@
       <c r="B37" s="253" t="s">
         <v>588</v>
       </c>
-      <c r="C37" s="465" t="s">
+      <c r="C37" s="498" t="s">
         <v>589</v>
       </c>
-      <c r="D37" s="466"/>
+      <c r="D37" s="499"/>
       <c r="E37" s="156" t="s">
         <v>590</v>
       </c>
@@ -36111,15 +36133,15 @@
       <c r="B38" s="253" t="s">
         <v>593</v>
       </c>
-      <c r="C38" s="465" t="s">
+      <c r="C38" s="498" t="s">
         <v>594</v>
       </c>
-      <c r="D38" s="466"/>
+      <c r="D38" s="499"/>
       <c r="E38" s="156"/>
-      <c r="F38" s="525" t="s">
+      <c r="F38" s="500" t="s">
         <v>595</v>
       </c>
-      <c r="G38" s="526"/>
+      <c r="G38" s="501"/>
       <c r="H38" s="302"/>
       <c r="I38" s="353"/>
       <c r="K38" s="381"/>
@@ -36132,14 +36154,14 @@
       <c r="B39" s="253" t="s">
         <v>596</v>
       </c>
-      <c r="C39" s="465" t="s">
+      <c r="C39" s="498" t="s">
         <v>597</v>
       </c>
-      <c r="D39" s="466"/>
-      <c r="E39" s="525" t="s">
+      <c r="D39" s="499"/>
+      <c r="E39" s="500" t="s">
         <v>598</v>
       </c>
-      <c r="F39" s="525"/>
+      <c r="F39" s="500"/>
       <c r="G39" s="158" t="s">
         <v>599</v>
       </c>
@@ -36156,14 +36178,14 @@
       <c r="B40" s="253" t="s">
         <v>600</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="498" t="s">
         <v>601</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="525" t="s">
+      <c r="D40" s="499"/>
+      <c r="E40" s="500" t="s">
         <v>602</v>
       </c>
-      <c r="F40" s="525"/>
+      <c r="F40" s="500"/>
       <c r="G40" s="158" t="s">
         <v>603</v>
       </c>
@@ -36180,14 +36202,14 @@
       <c r="B41" s="253" t="s">
         <v>604</v>
       </c>
-      <c r="C41" s="465" t="s">
+      <c r="C41" s="498" t="s">
         <v>605</v>
       </c>
-      <c r="D41" s="466"/>
-      <c r="E41" s="525" t="s">
+      <c r="D41" s="499"/>
+      <c r="E41" s="500" t="s">
         <v>606</v>
       </c>
-      <c r="F41" s="525"/>
+      <c r="F41" s="500"/>
       <c r="G41" s="158" t="s">
         <v>607</v>
       </c>
@@ -36199,17 +36221,17 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="509" t="s">
+      <c r="A43" s="508" t="s">
         <v>608</v>
       </c>
-      <c r="B43" s="510"/>
-      <c r="C43" s="510"/>
-      <c r="D43" s="510"/>
-      <c r="E43" s="510"/>
-      <c r="F43" s="510"/>
-      <c r="G43" s="510"/>
-      <c r="H43" s="510"/>
-      <c r="I43" s="511"/>
+      <c r="B43" s="509"/>
+      <c r="C43" s="509"/>
+      <c r="D43" s="509"/>
+      <c r="E43" s="509"/>
+      <c r="F43" s="509"/>
+      <c r="G43" s="509"/>
+      <c r="H43" s="509"/>
+      <c r="I43" s="510"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="278"/>
@@ -36233,17 +36255,17 @@
       <c r="I44" s="281"/>
     </row>
     <row r="45" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="512" t="s">
+      <c r="A45" s="511" t="s">
         <v>609</v>
       </c>
-      <c r="B45" s="513"/>
-      <c r="C45" s="513"/>
-      <c r="D45" s="513"/>
-      <c r="E45" s="513"/>
-      <c r="F45" s="513"/>
-      <c r="G45" s="513"/>
-      <c r="H45" s="513"/>
-      <c r="I45" s="514"/>
+      <c r="B45" s="512"/>
+      <c r="C45" s="512"/>
+      <c r="D45" s="512"/>
+      <c r="E45" s="512"/>
+      <c r="F45" s="512"/>
+      <c r="G45" s="512"/>
+      <c r="H45" s="512"/>
+      <c r="I45" s="513"/>
     </row>
     <row r="46" spans="1:13" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="255">
@@ -36252,10 +36274,10 @@
       <c r="B46" s="256" t="s">
         <v>610</v>
       </c>
-      <c r="C46" s="515" t="s">
+      <c r="C46" s="493" t="s">
         <v>611</v>
       </c>
-      <c r="D46" s="516"/>
+      <c r="D46" s="494"/>
       <c r="E46" s="257" t="s">
         <v>612</v>
       </c>
@@ -36272,17 +36294,17 @@
       <c r="M46" s="381"/>
     </row>
     <row r="47" spans="1:13" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="517" t="s">
+      <c r="A47" s="490" t="s">
         <v>615</v>
       </c>
-      <c r="B47" s="518"/>
-      <c r="C47" s="518"/>
-      <c r="D47" s="518"/>
-      <c r="E47" s="518"/>
-      <c r="F47" s="518"/>
-      <c r="G47" s="518"/>
-      <c r="H47" s="518"/>
-      <c r="I47" s="519"/>
+      <c r="B47" s="491"/>
+      <c r="C47" s="491"/>
+      <c r="D47" s="491"/>
+      <c r="E47" s="491"/>
+      <c r="F47" s="491"/>
+      <c r="G47" s="491"/>
+      <c r="H47" s="491"/>
+      <c r="I47" s="492"/>
     </row>
     <row r="48" spans="1:13" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="252">
@@ -36291,10 +36313,10 @@
       <c r="B48" s="253" t="s">
         <v>616</v>
       </c>
-      <c r="C48" s="520" t="s">
+      <c r="C48" s="514" t="s">
         <v>617</v>
       </c>
-      <c r="D48" s="521"/>
+      <c r="D48" s="515"/>
       <c r="E48" s="169" t="s">
         <v>618</v>
       </c>
@@ -36339,17 +36361,17 @@
       <c r="B50" s="256" t="s">
         <v>624</v>
       </c>
-      <c r="C50" s="515" t="s">
+      <c r="C50" s="493" t="s">
         <v>625</v>
       </c>
-      <c r="D50" s="516"/>
+      <c r="D50" s="494"/>
       <c r="E50" s="257" t="s">
         <v>626</v>
       </c>
-      <c r="F50" s="523" t="s">
+      <c r="F50" s="495" t="s">
         <v>627</v>
       </c>
-      <c r="G50" s="524"/>
+      <c r="G50" s="496"/>
       <c r="H50" s="302"/>
       <c r="I50" s="353"/>
       <c r="K50" s="381"/>
@@ -36357,17 +36379,17 @@
       <c r="M50" s="381"/>
     </row>
     <row r="51" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="517" t="s">
+      <c r="A51" s="490" t="s">
         <v>628</v>
       </c>
-      <c r="B51" s="518"/>
-      <c r="C51" s="518"/>
-      <c r="D51" s="518"/>
-      <c r="E51" s="518"/>
-      <c r="F51" s="518"/>
-      <c r="G51" s="518"/>
-      <c r="H51" s="518"/>
-      <c r="I51" s="519"/>
+      <c r="B51" s="491"/>
+      <c r="C51" s="491"/>
+      <c r="D51" s="491"/>
+      <c r="E51" s="491"/>
+      <c r="F51" s="491"/>
+      <c r="G51" s="491"/>
+      <c r="H51" s="491"/>
+      <c r="I51" s="492"/>
     </row>
     <row r="52" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="252">
@@ -36382,10 +36404,10 @@
       <c r="D52" s="169" t="s">
         <v>631</v>
       </c>
-      <c r="E52" s="508" t="s">
+      <c r="E52" s="497" t="s">
         <v>632</v>
       </c>
-      <c r="F52" s="508"/>
+      <c r="F52" s="497"/>
       <c r="G52" s="165" t="s">
         <v>633</v>
       </c>
@@ -36405,10 +36427,10 @@
       <c r="C53" s="166" t="s">
         <v>635</v>
       </c>
-      <c r="D53" s="522" t="s">
+      <c r="D53" s="489" t="s">
         <v>636</v>
       </c>
-      <c r="E53" s="522"/>
+      <c r="E53" s="489"/>
       <c r="F53" s="163"/>
       <c r="G53" s="164" t="s">
         <v>637</v>
@@ -36420,17 +36442,17 @@
       <c r="M53" s="381"/>
     </row>
     <row r="54" spans="1:14" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="517" t="s">
+      <c r="A54" s="490" t="s">
         <v>638</v>
       </c>
-      <c r="B54" s="518"/>
-      <c r="C54" s="518"/>
-      <c r="D54" s="518"/>
-      <c r="E54" s="518"/>
-      <c r="F54" s="518"/>
-      <c r="G54" s="518"/>
-      <c r="H54" s="518"/>
-      <c r="I54" s="519"/>
+      <c r="B54" s="491"/>
+      <c r="C54" s="491"/>
+      <c r="D54" s="491"/>
+      <c r="E54" s="491"/>
+      <c r="F54" s="491"/>
+      <c r="G54" s="491"/>
+      <c r="H54" s="491"/>
+      <c r="I54" s="492"/>
     </row>
     <row r="55" spans="1:14" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="255">
@@ -36485,10 +36507,10 @@
         <v>647</v>
       </c>
       <c r="D57" s="169"/>
-      <c r="E57" s="508" t="s">
+      <c r="E57" s="497" t="s">
         <v>648</v>
       </c>
-      <c r="F57" s="508"/>
+      <c r="F57" s="497"/>
       <c r="G57" s="165" t="s">
         <v>649</v>
       </c>
@@ -36499,17 +36521,17 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="451" t="s">
+      <c r="A60" s="482" t="s">
         <v>739</v>
       </c>
-      <c r="B60" s="452"/>
-      <c r="C60" s="452"/>
-      <c r="D60" s="452"/>
-      <c r="E60" s="452"/>
-      <c r="F60" s="452"/>
-      <c r="G60" s="452"/>
-      <c r="H60" s="452"/>
-      <c r="I60" s="453"/>
+      <c r="B60" s="483"/>
+      <c r="C60" s="483"/>
+      <c r="D60" s="483"/>
+      <c r="E60" s="483"/>
+      <c r="F60" s="483"/>
+      <c r="G60" s="483"/>
+      <c r="H60" s="483"/>
+      <c r="I60" s="484"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="244"/>
@@ -36533,17 +36555,17 @@
       <c r="I61" s="379"/>
     </row>
     <row r="62" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="467" t="s">
+      <c r="A62" s="545" t="s">
         <v>486</v>
       </c>
-      <c r="B62" s="468"/>
-      <c r="C62" s="468"/>
-      <c r="D62" s="468"/>
-      <c r="E62" s="468"/>
-      <c r="F62" s="468"/>
-      <c r="G62" s="468"/>
-      <c r="H62" s="468"/>
-      <c r="I62" s="469"/>
+      <c r="B62" s="546"/>
+      <c r="C62" s="546"/>
+      <c r="D62" s="546"/>
+      <c r="E62" s="546"/>
+      <c r="F62" s="546"/>
+      <c r="G62" s="546"/>
+      <c r="H62" s="546"/>
+      <c r="I62" s="547"/>
     </row>
     <row r="63" spans="1:14" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="285">
@@ -36552,14 +36574,14 @@
       <c r="B63" s="284" t="s">
         <v>673</v>
       </c>
-      <c r="C63" s="473" t="s">
+      <c r="C63" s="502" t="s">
         <v>728</v>
       </c>
-      <c r="D63" s="474"/>
-      <c r="E63" s="475" t="s">
+      <c r="D63" s="503"/>
+      <c r="E63" s="504" t="s">
         <v>729</v>
       </c>
-      <c r="F63" s="475"/>
+      <c r="F63" s="504"/>
       <c r="G63" s="282" t="s">
         <v>730</v>
       </c>
@@ -36573,14 +36595,14 @@
       <c r="B64" s="284" t="s">
         <v>674</v>
       </c>
-      <c r="C64" s="473" t="s">
+      <c r="C64" s="502" t="s">
         <v>731</v>
       </c>
-      <c r="D64" s="474"/>
-      <c r="E64" s="475" t="s">
+      <c r="D64" s="503"/>
+      <c r="E64" s="504" t="s">
         <v>732</v>
       </c>
-      <c r="F64" s="475"/>
+      <c r="F64" s="504"/>
       <c r="G64" s="282" t="s">
         <v>733</v>
       </c>
@@ -36594,14 +36616,14 @@
       <c r="B65" s="287" t="s">
         <v>675</v>
       </c>
-      <c r="C65" s="473" t="s">
+      <c r="C65" s="502" t="s">
         <v>734</v>
       </c>
-      <c r="D65" s="474"/>
-      <c r="E65" s="475" t="s">
+      <c r="D65" s="503"/>
+      <c r="E65" s="504" t="s">
         <v>735</v>
       </c>
-      <c r="F65" s="475"/>
+      <c r="F65" s="504"/>
       <c r="G65" s="282" t="s">
         <v>736</v>
       </c>
@@ -36615,14 +36637,14 @@
       <c r="B66" s="284" t="s">
         <v>676</v>
       </c>
-      <c r="C66" s="473" t="s">
+      <c r="C66" s="502" t="s">
         <v>737</v>
       </c>
-      <c r="D66" s="474"/>
-      <c r="E66" s="475" t="s">
+      <c r="D66" s="503"/>
+      <c r="E66" s="504" t="s">
         <v>738</v>
       </c>
-      <c r="F66" s="475"/>
+      <c r="F66" s="504"/>
       <c r="G66" s="282" t="s">
         <v>733</v>
       </c>
@@ -36636,14 +36658,14 @@
       <c r="B67" s="284" t="s">
         <v>677</v>
       </c>
-      <c r="C67" s="473" t="s">
+      <c r="C67" s="502" t="s">
         <v>523</v>
       </c>
-      <c r="D67" s="474"/>
-      <c r="E67" s="475" t="s">
+      <c r="D67" s="503"/>
+      <c r="E67" s="504" t="s">
         <v>524</v>
       </c>
-      <c r="F67" s="475"/>
+      <c r="F67" s="504"/>
       <c r="G67" s="282" t="s">
         <v>525</v>
       </c>
@@ -36651,17 +36673,17 @@
       <c r="I67" s="198"/>
     </row>
     <row r="68" spans="1:9" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="470" t="s">
+      <c r="A68" s="548" t="s">
         <v>533</v>
       </c>
-      <c r="B68" s="471"/>
-      <c r="C68" s="471"/>
-      <c r="D68" s="471"/>
-      <c r="E68" s="471"/>
-      <c r="F68" s="471"/>
-      <c r="G68" s="471"/>
-      <c r="H68" s="471"/>
-      <c r="I68" s="472"/>
+      <c r="B68" s="549"/>
+      <c r="C68" s="549"/>
+      <c r="D68" s="549"/>
+      <c r="E68" s="549"/>
+      <c r="F68" s="549"/>
+      <c r="G68" s="549"/>
+      <c r="H68" s="549"/>
+      <c r="I68" s="550"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="278"/>
@@ -36691,10 +36713,10 @@
       <c r="B70" s="289" t="s">
         <v>679</v>
       </c>
-      <c r="C70" s="465" t="s">
+      <c r="C70" s="498" t="s">
         <v>740</v>
       </c>
-      <c r="D70" s="466"/>
+      <c r="D70" s="499"/>
       <c r="E70" s="156" t="s">
         <v>741</v>
       </c>
@@ -36709,6 +36731,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A60:I60"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D53:E53"/>
@@ -36725,66 +36807,6 @@
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="A56:I56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36839,13 +36861,13 @@
       <c r="A1" s="347" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="533" t="s">
+      <c r="B1" s="557" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="533"/>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
+      <c r="C1" s="557"/>
+      <c r="D1" s="557"/>
+      <c r="E1" s="557"/>
+      <c r="F1" s="557"/>
       <c r="G1" s="79" t="s">
         <v>322</v>
       </c>
@@ -36896,33 +36918,33 @@
         <f>SUM(K4:K50)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="527" t="s">
+      <c r="Q2" s="551" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="528" t="s">
+      <c r="R2" s="552" t="s">
         <v>784</v>
       </c>
-      <c r="S2" s="528" t="s">
+      <c r="S2" s="552" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="534" t="s">
+      <c r="A3" s="558" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="535"/>
-      <c r="C3" s="535"/>
-      <c r="D3" s="535"/>
-      <c r="E3" s="535"/>
-      <c r="F3" s="535"/>
-      <c r="G3" s="535"/>
-      <c r="H3" s="535"/>
-      <c r="I3" s="535"/>
-      <c r="J3" s="535"/>
+      <c r="B3" s="559"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="559"/>
+      <c r="E3" s="559"/>
+      <c r="F3" s="559"/>
+      <c r="G3" s="559"/>
+      <c r="H3" s="559"/>
+      <c r="I3" s="559"/>
+      <c r="J3" s="559"/>
       <c r="K3" s="368"/>
-      <c r="Q3" s="527"/>
-      <c r="R3" s="528"/>
-      <c r="S3" s="528"/>
+      <c r="Q3" s="551"/>
+      <c r="R3" s="552"/>
+      <c r="S3" s="552"/>
       <c r="V3" s="358" t="s">
         <v>780</v>
       </c>
@@ -37155,19 +37177,19 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="536" t="s">
+      <c r="A9" s="560" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="537"/>
-      <c r="C9" s="537"/>
-      <c r="D9" s="537"/>
-      <c r="E9" s="537"/>
-      <c r="F9" s="537"/>
-      <c r="G9" s="531"/>
-      <c r="H9" s="537"/>
-      <c r="I9" s="537"/>
-      <c r="J9" s="537"/>
-      <c r="K9" s="538"/>
+      <c r="B9" s="561"/>
+      <c r="C9" s="561"/>
+      <c r="D9" s="561"/>
+      <c r="E9" s="561"/>
+      <c r="F9" s="561"/>
+      <c r="G9" s="555"/>
+      <c r="H9" s="561"/>
+      <c r="I9" s="561"/>
+      <c r="J9" s="561"/>
+      <c r="K9" s="562"/>
     </row>
     <row r="10" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="346" t="s">
@@ -37502,19 +37524,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="529" t="s">
+      <c r="A20" s="553" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="530"/>
-      <c r="C20" s="530"/>
-      <c r="D20" s="530"/>
-      <c r="E20" s="530"/>
-      <c r="F20" s="530"/>
-      <c r="G20" s="531"/>
-      <c r="H20" s="530"/>
-      <c r="I20" s="530"/>
-      <c r="J20" s="530"/>
-      <c r="K20" s="532"/>
+      <c r="B20" s="554"/>
+      <c r="C20" s="554"/>
+      <c r="D20" s="554"/>
+      <c r="E20" s="554"/>
+      <c r="F20" s="554"/>
+      <c r="G20" s="555"/>
+      <c r="H20" s="554"/>
+      <c r="I20" s="554"/>
+      <c r="J20" s="554"/>
+      <c r="K20" s="556"/>
     </row>
     <row r="21" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="114" t="s">
@@ -37814,19 +37836,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="529" t="s">
+      <c r="A30" s="553" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="530"/>
-      <c r="C30" s="530"/>
-      <c r="D30" s="530"/>
-      <c r="E30" s="530"/>
-      <c r="F30" s="530"/>
-      <c r="G30" s="531"/>
-      <c r="H30" s="530"/>
-      <c r="I30" s="530"/>
-      <c r="J30" s="530"/>
-      <c r="K30" s="532"/>
+      <c r="B30" s="554"/>
+      <c r="C30" s="554"/>
+      <c r="D30" s="554"/>
+      <c r="E30" s="554"/>
+      <c r="F30" s="554"/>
+      <c r="G30" s="555"/>
+      <c r="H30" s="554"/>
+      <c r="I30" s="554"/>
+      <c r="J30" s="554"/>
+      <c r="K30" s="556"/>
     </row>
     <row r="31" spans="1:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114" t="s">
@@ -38050,19 +38072,19 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="529" t="s">
+      <c r="A38" s="553" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="530"/>
-      <c r="C38" s="530"/>
-      <c r="D38" s="530"/>
-      <c r="E38" s="530"/>
-      <c r="F38" s="530"/>
-      <c r="G38" s="531"/>
-      <c r="H38" s="530"/>
-      <c r="I38" s="530"/>
-      <c r="J38" s="530"/>
-      <c r="K38" s="532"/>
+      <c r="B38" s="554"/>
+      <c r="C38" s="554"/>
+      <c r="D38" s="554"/>
+      <c r="E38" s="554"/>
+      <c r="F38" s="554"/>
+      <c r="G38" s="555"/>
+      <c r="H38" s="554"/>
+      <c r="I38" s="554"/>
+      <c r="J38" s="554"/>
+      <c r="K38" s="556"/>
     </row>
     <row r="39" spans="1:11" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="114" t="s">
@@ -38230,19 +38252,19 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="529" t="s">
+      <c r="A44" s="553" t="s">
         <v>214</v>
       </c>
-      <c r="B44" s="530"/>
-      <c r="C44" s="530"/>
-      <c r="D44" s="530"/>
-      <c r="E44" s="530"/>
-      <c r="F44" s="530"/>
-      <c r="G44" s="531"/>
-      <c r="H44" s="530"/>
-      <c r="I44" s="530"/>
-      <c r="J44" s="530"/>
-      <c r="K44" s="532"/>
+      <c r="B44" s="554"/>
+      <c r="C44" s="554"/>
+      <c r="D44" s="554"/>
+      <c r="E44" s="554"/>
+      <c r="F44" s="554"/>
+      <c r="G44" s="555"/>
+      <c r="H44" s="554"/>
+      <c r="I44" s="554"/>
+      <c r="J44" s="554"/>
+      <c r="K44" s="556"/>
     </row>
     <row r="45" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="114" t="s">
@@ -38476,34 +38498,34 @@
       <c r="A1" s="372" t="s">
         <v>434</v>
       </c>
-      <c r="E1" s="548">
+      <c r="E1" s="572">
         <f>Intro!B3</f>
         <v>0</v>
       </c>
-      <c r="F1" s="549"/>
-      <c r="G1" s="549"/>
-      <c r="H1" s="549"/>
-      <c r="I1" s="549"/>
-      <c r="J1" s="549"/>
-      <c r="K1" s="549"/>
-      <c r="L1" s="549"/>
-      <c r="M1" s="549"/>
-      <c r="N1" s="549"/>
-      <c r="O1" s="549"/>
-      <c r="P1" s="549"/>
-      <c r="Q1" s="549"/>
-      <c r="R1" s="549"/>
-      <c r="S1" s="550"/>
-      <c r="V1" s="551" t="s">
+      <c r="F1" s="573"/>
+      <c r="G1" s="573"/>
+      <c r="H1" s="573"/>
+      <c r="I1" s="573"/>
+      <c r="J1" s="573"/>
+      <c r="K1" s="573"/>
+      <c r="L1" s="573"/>
+      <c r="M1" s="573"/>
+      <c r="N1" s="573"/>
+      <c r="O1" s="573"/>
+      <c r="P1" s="573"/>
+      <c r="Q1" s="573"/>
+      <c r="R1" s="573"/>
+      <c r="S1" s="574"/>
+      <c r="V1" s="575" t="s">
         <v>744</v>
       </c>
-      <c r="W1" s="551"/>
-      <c r="X1" s="551"/>
-      <c r="Y1" s="551"/>
-      <c r="Z1" s="551"/>
-      <c r="AA1" s="551"/>
-      <c r="AB1" s="551"/>
-      <c r="AC1" s="551"/>
+      <c r="W1" s="575"/>
+      <c r="X1" s="575"/>
+      <c r="Y1" s="575"/>
+      <c r="Z1" s="575"/>
+      <c r="AA1" s="575"/>
+      <c r="AB1" s="575"/>
+      <c r="AC1" s="575"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="386" t="str">
@@ -38528,18 +38550,18 @@
       <c r="Q2" s="390"/>
       <c r="R2" s="390"/>
       <c r="S2" s="398"/>
-      <c r="V2" s="551" t="s">
+      <c r="V2" s="575" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="551"/>
-      <c r="X2" s="551"/>
-      <c r="Y2" s="551"/>
-      <c r="Z2" s="551" t="s">
+      <c r="W2" s="575"/>
+      <c r="X2" s="575"/>
+      <c r="Y2" s="575"/>
+      <c r="Z2" s="575" t="s">
         <v>656</v>
       </c>
-      <c r="AA2" s="551"/>
-      <c r="AB2" s="551"/>
-      <c r="AC2" s="551"/>
+      <c r="AA2" s="575"/>
+      <c r="AB2" s="575"/>
+      <c r="AC2" s="575"/>
     </row>
     <row r="3" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="386"/>
@@ -38547,23 +38569,23 @@
       <c r="C3" s="386"/>
       <c r="D3" s="385"/>
       <c r="E3" s="391"/>
-      <c r="F3" s="539" t="s">
+      <c r="F3" s="563" t="s">
         <v>724</v>
       </c>
-      <c r="G3" s="540"/>
-      <c r="H3" s="540"/>
-      <c r="I3" s="540"/>
-      <c r="J3" s="541"/>
+      <c r="G3" s="564"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="392"/>
-      <c r="N3" s="539" t="s">
+      <c r="N3" s="563" t="s">
         <v>725</v>
       </c>
-      <c r="O3" s="540"/>
-      <c r="P3" s="540"/>
-      <c r="Q3" s="540"/>
-      <c r="R3" s="541"/>
+      <c r="O3" s="564"/>
+      <c r="P3" s="564"/>
+      <c r="Q3" s="564"/>
+      <c r="R3" s="565"/>
       <c r="S3" s="399"/>
       <c r="V3" s="362" t="s">
         <v>446</v>
@@ -38675,16 +38697,16 @@
       <c r="Q5" s="392"/>
       <c r="R5" s="392"/>
       <c r="S5" s="399"/>
-      <c r="V5" s="551" t="s">
+      <c r="V5" s="575" t="s">
         <v>745</v>
       </c>
-      <c r="W5" s="551"/>
-      <c r="X5" s="551"/>
-      <c r="Y5" s="551"/>
-      <c r="Z5" s="551"/>
-      <c r="AA5" s="551"/>
-      <c r="AB5" s="551"/>
-      <c r="AC5" s="551"/>
+      <c r="W5" s="575"/>
+      <c r="X5" s="575"/>
+      <c r="Y5" s="575"/>
+      <c r="Z5" s="575"/>
+      <c r="AA5" s="575"/>
+      <c r="AB5" s="575"/>
+      <c r="AC5" s="575"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="386" t="s">
@@ -38714,18 +38736,18 @@
       <c r="Q6" s="392"/>
       <c r="R6" s="392"/>
       <c r="S6" s="399"/>
-      <c r="V6" s="551" t="s">
+      <c r="V6" s="575" t="s">
         <v>655</v>
       </c>
-      <c r="W6" s="551"/>
-      <c r="X6" s="551"/>
-      <c r="Y6" s="551"/>
-      <c r="Z6" s="551" t="s">
+      <c r="W6" s="575"/>
+      <c r="X6" s="575"/>
+      <c r="Y6" s="575"/>
+      <c r="Z6" s="575" t="s">
         <v>656</v>
       </c>
-      <c r="AA6" s="551"/>
-      <c r="AB6" s="551"/>
-      <c r="AC6" s="551"/>
+      <c r="AA6" s="575"/>
+      <c r="AB6" s="575"/>
+      <c r="AC6" s="575"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="386"/>
@@ -38886,18 +38908,18 @@
       <c r="Q10" s="392"/>
       <c r="R10" s="392"/>
       <c r="S10" s="399"/>
-      <c r="V10" s="551" t="s">
+      <c r="V10" s="575" t="s">
         <v>754</v>
       </c>
-      <c r="W10" s="551"/>
-      <c r="X10" s="551"/>
-      <c r="Y10" s="551"/>
-      <c r="Z10" s="551" t="s">
+      <c r="W10" s="575"/>
+      <c r="X10" s="575"/>
+      <c r="Y10" s="575"/>
+      <c r="Z10" s="575" t="s">
         <v>755</v>
       </c>
-      <c r="AA10" s="551"/>
-      <c r="AB10" s="551"/>
-      <c r="AC10" s="551"/>
+      <c r="AA10" s="575"/>
+      <c r="AB10" s="575"/>
+      <c r="AC10" s="575"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="386"/>
@@ -39095,16 +39117,16 @@
       <c r="Q15" s="392"/>
       <c r="R15" s="392"/>
       <c r="S15" s="399"/>
-      <c r="V15" s="551" t="s">
+      <c r="V15" s="575" t="s">
         <v>757</v>
       </c>
-      <c r="W15" s="551"/>
-      <c r="X15" s="551"/>
-      <c r="Y15" s="551"/>
-      <c r="Z15" s="551"/>
-      <c r="AA15" s="551"/>
-      <c r="AB15" s="551"/>
-      <c r="AC15" s="551"/>
+      <c r="W15" s="575"/>
+      <c r="X15" s="575"/>
+      <c r="Y15" s="575"/>
+      <c r="Z15" s="575"/>
+      <c r="AA15" s="575"/>
+      <c r="AB15" s="575"/>
+      <c r="AC15" s="575"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="386"/>
@@ -39126,18 +39148,18 @@
       <c r="Q16" s="392"/>
       <c r="R16" s="392"/>
       <c r="S16" s="399"/>
-      <c r="V16" s="551" t="s">
+      <c r="V16" s="575" t="s">
         <v>655</v>
       </c>
-      <c r="W16" s="551"/>
-      <c r="X16" s="551"/>
-      <c r="Y16" s="551"/>
-      <c r="Z16" s="551" t="s">
+      <c r="W16" s="575"/>
+      <c r="X16" s="575"/>
+      <c r="Y16" s="575"/>
+      <c r="Z16" s="575" t="s">
         <v>756</v>
       </c>
-      <c r="AA16" s="551"/>
-      <c r="AB16" s="551"/>
-      <c r="AC16" s="551"/>
+      <c r="AA16" s="575"/>
+      <c r="AB16" s="575"/>
+      <c r="AC16" s="575"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="386"/>
@@ -39257,12 +39279,12 @@
       <c r="W19" s="368"/>
       <c r="X19" s="368"/>
       <c r="Y19" s="368"/>
-      <c r="Z19" s="551" t="s">
+      <c r="Z19" s="575" t="s">
         <v>758</v>
       </c>
-      <c r="AA19" s="551"/>
-      <c r="AB19" s="551"/>
-      <c r="AC19" s="551"/>
+      <c r="AA19" s="575"/>
+      <c r="AB19" s="575"/>
+      <c r="AC19" s="575"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="372" t="s">
@@ -39507,13 +39529,13 @@
       <c r="K29" s="392"/>
       <c r="L29" s="392"/>
       <c r="M29" s="392"/>
-      <c r="N29" s="542" t="s">
+      <c r="N29" s="566" t="s">
         <v>727</v>
       </c>
-      <c r="O29" s="543"/>
-      <c r="P29" s="543"/>
-      <c r="Q29" s="543"/>
-      <c r="R29" s="544"/>
+      <c r="O29" s="567"/>
+      <c r="P29" s="567"/>
+      <c r="Q29" s="567"/>
+      <c r="R29" s="568"/>
       <c r="S29" s="399"/>
     </row>
     <row r="30" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -39521,21 +39543,21 @@
       <c r="B30" s="388"/>
       <c r="C30" s="388"/>
       <c r="E30" s="393"/>
-      <c r="F30" s="539" t="s">
+      <c r="F30" s="563" t="s">
         <v>726</v>
       </c>
-      <c r="G30" s="540"/>
-      <c r="H30" s="540"/>
-      <c r="I30" s="540"/>
-      <c r="J30" s="541"/>
+      <c r="G30" s="564"/>
+      <c r="H30" s="564"/>
+      <c r="I30" s="564"/>
+      <c r="J30" s="565"/>
       <c r="K30" s="392"/>
       <c r="L30" s="392"/>
       <c r="M30" s="392"/>
-      <c r="N30" s="545"/>
-      <c r="O30" s="546"/>
-      <c r="P30" s="546"/>
-      <c r="Q30" s="546"/>
-      <c r="R30" s="547"/>
+      <c r="N30" s="569"/>
+      <c r="O30" s="570"/>
+      <c r="P30" s="570"/>
+      <c r="Q30" s="570"/>
+      <c r="R30" s="571"/>
       <c r="S30" s="399"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -39991,23 +40013,23 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="N29:R30"/>
-    <mergeCell ref="E1:S1"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="V5:AC5"/>
     <mergeCell ref="Z19:AC19"/>
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="V15:AC15"/>
     <mergeCell ref="V16:Y16"/>
     <mergeCell ref="Z16:AC16"/>
     <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="N29:R30"/>
+    <mergeCell ref="E1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40069,19 +40091,19 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="552" t="s">
+      <c r="A2" s="576" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="552"/>
-      <c r="C2" s="552"/>
-      <c r="D2" s="552"/>
-      <c r="E2" s="552"/>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="552"/>
-      <c r="I2" s="552"/>
-      <c r="J2" s="552"/>
-      <c r="K2" s="552"/>
+      <c r="B2" s="576"/>
+      <c r="C2" s="576"/>
+      <c r="D2" s="576"/>
+      <c r="E2" s="576"/>
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="576"/>
+      <c r="J2" s="576"/>
+      <c r="K2" s="576"/>
       <c r="N2" s="135"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -40495,8 +40517,8 @@
       <c r="K20" s="48"/>
     </row>
     <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="553"/>
-      <c r="B21" s="553"/>
+      <c r="A21" s="577"/>
+      <c r="B21" s="577"/>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
@@ -40543,16 +40565,16 @@
       <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="555" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="555"/>
-      <c r="C24" s="555"/>
-      <c r="D24" s="555"/>
-      <c r="E24" s="555"/>
-      <c r="F24" s="555"/>
-      <c r="G24" s="555"/>
-      <c r="H24" s="555"/>
+      <c r="A24" s="579" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="579"/>
+      <c r="C24" s="579"/>
+      <c r="D24" s="579"/>
+      <c r="E24" s="579"/>
+      <c r="F24" s="579"/>
+      <c r="G24" s="579"/>
+      <c r="H24" s="579"/>
       <c r="K24" s="52"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -41141,16 +41163,16 @@
       <c r="K46" s="51"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="554" t="s">
+      <c r="A47" s="578" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="554"/>
-      <c r="C47" s="554"/>
-      <c r="D47" s="554"/>
-      <c r="E47" s="554"/>
-      <c r="F47" s="554"/>
-      <c r="G47" s="554"/>
-      <c r="H47" s="554"/>
+      <c r="B47" s="578"/>
+      <c r="C47" s="578"/>
+      <c r="D47" s="578"/>
+      <c r="E47" s="578"/>
+      <c r="F47" s="578"/>
+      <c r="G47" s="578"/>
+      <c r="H47" s="578"/>
       <c r="I47" s="50"/>
       <c r="J47" s="53">
         <f>SUM(J27:J46)</f>
@@ -41184,16 +41206,16 @@
       <c r="J53" s="51"/>
     </row>
     <row r="54" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="556" t="s">
+      <c r="A54" s="580" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="556"/>
-      <c r="C54" s="556"/>
-      <c r="D54" s="556"/>
-      <c r="E54" s="556"/>
-      <c r="F54" s="556"/>
-      <c r="G54" s="556"/>
-      <c r="H54" s="556"/>
+      <c r="B54" s="580"/>
+      <c r="C54" s="580"/>
+      <c r="D54" s="580"/>
+      <c r="E54" s="580"/>
+      <c r="F54" s="580"/>
+      <c r="G54" s="580"/>
+      <c r="H54" s="580"/>
       <c r="I54" s="47" t="s">
         <v>3</v>
       </c>
@@ -42259,16 +42281,16 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="554" t="s">
+      <c r="A94" s="578" t="s">
         <v>71</v>
       </c>
-      <c r="B94" s="554"/>
-      <c r="C94" s="554"/>
-      <c r="D94" s="554"/>
-      <c r="E94" s="554"/>
-      <c r="F94" s="554"/>
-      <c r="G94" s="554"/>
-      <c r="H94" s="554"/>
+      <c r="B94" s="578"/>
+      <c r="C94" s="578"/>
+      <c r="D94" s="578"/>
+      <c r="E94" s="578"/>
+      <c r="F94" s="578"/>
+      <c r="G94" s="578"/>
+      <c r="H94" s="578"/>
       <c r="I94" s="50"/>
       <c r="J94" s="53">
         <f>SUM(J57:J93)</f>
@@ -42612,43 +42634,43 @@
       <c r="B1" s="204" t="s">
         <v>483</v>
       </c>
-      <c r="E1" s="557" t="s">
+      <c r="E1" s="581" t="s">
         <v>651</v>
       </c>
-      <c r="F1" s="558"/>
-      <c r="G1" s="558"/>
-      <c r="H1" s="559"/>
-      <c r="I1" s="558" t="s">
+      <c r="F1" s="582"/>
+      <c r="G1" s="582"/>
+      <c r="H1" s="583"/>
+      <c r="I1" s="582" t="s">
         <v>652</v>
       </c>
-      <c r="J1" s="558"/>
-      <c r="K1" s="558"/>
-      <c r="L1" s="558"/>
-      <c r="M1" s="557" t="s">
+      <c r="J1" s="582"/>
+      <c r="K1" s="582"/>
+      <c r="L1" s="582"/>
+      <c r="M1" s="581" t="s">
         <v>653</v>
       </c>
-      <c r="N1" s="558"/>
-      <c r="O1" s="558"/>
-      <c r="P1" s="559"/>
-      <c r="Q1" s="557" t="s">
+      <c r="N1" s="582"/>
+      <c r="O1" s="582"/>
+      <c r="P1" s="583"/>
+      <c r="Q1" s="581" t="s">
         <v>654</v>
       </c>
-      <c r="R1" s="558"/>
-      <c r="S1" s="558"/>
-      <c r="T1" s="559"/>
+      <c r="R1" s="582"/>
+      <c r="S1" s="582"/>
+      <c r="T1" s="583"/>
       <c r="V1" s="205"/>
-      <c r="W1" s="557" t="s">
+      <c r="W1" s="581" t="s">
         <v>655</v>
       </c>
-      <c r="X1" s="558"/>
-      <c r="Y1" s="558"/>
-      <c r="Z1" s="559"/>
-      <c r="AA1" s="557" t="s">
+      <c r="X1" s="582"/>
+      <c r="Y1" s="582"/>
+      <c r="Z1" s="583"/>
+      <c r="AA1" s="581" t="s">
         <v>656</v>
       </c>
-      <c r="AB1" s="558"/>
-      <c r="AC1" s="558"/>
-      <c r="AD1" s="559"/>
+      <c r="AB1" s="582"/>
+      <c r="AC1" s="582"/>
+      <c r="AD1" s="583"/>
     </row>
     <row r="2" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B2" s="206"/>
@@ -46913,13 +46935,13 @@
       <c r="E1" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="561" t="s">
+      <c r="G1" s="585" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="560" t="s">
+      <c r="H1" s="584" t="s">
         <v>784</v>
       </c>
-      <c r="I1" s="560" t="s">
+      <c r="I1" s="584" t="s">
         <v>783</v>
       </c>
     </row>
@@ -46937,22 +46959,22 @@
       <c r="E2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="561"/>
-      <c r="H2" s="560"/>
-      <c r="I2" s="560"/>
+      <c r="G2" s="585"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="584"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="562" t="s">
+      <c r="A3" s="586" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="562"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="562"/>
-      <c r="F3" s="562"/>
-      <c r="G3" s="562"/>
-      <c r="H3" s="562"/>
-      <c r="I3" s="562"/>
+      <c r="B3" s="586"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="586"/>
+      <c r="E3" s="586"/>
+      <c r="F3" s="586"/>
+      <c r="G3" s="586"/>
+      <c r="H3" s="586"/>
+      <c r="I3" s="586"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
@@ -48560,13 +48582,13 @@
       <c r="E89" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="G89" s="561" t="s">
+      <c r="G89" s="585" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="560" t="s">
+      <c r="H89" s="584" t="s">
         <v>281</v>
       </c>
-      <c r="I89" s="563" t="s">
+      <c r="I89" s="587" t="s">
         <v>282</v>
       </c>
     </row>
@@ -48584,9 +48606,9 @@
       <c r="E90" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="561"/>
-      <c r="H90" s="560"/>
-      <c r="I90" s="563"/>
+      <c r="G90" s="585"/>
+      <c r="H90" s="584"/>
+      <c r="I90" s="587"/>
     </row>
     <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="104"/>
